--- a/Formulars/TaxPro/British Columbia/iOS app (excel formula) - BC.xlsx
+++ b/Formulars/TaxPro/British Columbia/iOS app (excel formula) - BC.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.Chong\Desktop\Will\Letter\TaxPro\Base Formula - 2016 for 2017\British Columbia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9132" activeTab="4"/>
+    <workbookView xWindow="420" yWindow="140" windowWidth="24200" windowHeight="13600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RRSP (Deduction)" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,11 @@
     <sheet name="Foreign Investment Inc" sheetId="24" r:id="rId4"/>
     <sheet name="Old Age Security Pension" sheetId="27" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="129">
   <si>
     <t>Input cell</t>
   </si>
@@ -414,6 +412,12 @@
   </si>
   <si>
     <t>Reduction in BC Credit</t>
+  </si>
+  <si>
+    <t>stepone</t>
+  </si>
+  <si>
+    <t>steptwo</t>
   </si>
 </sst>
 </file>
@@ -550,7 +554,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,15 +690,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -757,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -792,7 +796,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -969,7 +973,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,24 +983,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -1012,7 +1016,7 @@
       <c r="M1" s="49"/>
       <c r="N1" s="49"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1027,7 +1031,7 @@
       <c r="M2" s="49"/>
       <c r="N2" s="49"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1046,7 @@
       <c r="M3" s="49"/>
       <c r="N3" s="49"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1064,7 @@
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="E5" s="49"/>
       <c r="F5" s="49"/>
       <c r="G5" s="49"/>
@@ -1072,7 +1076,7 @@
       <c r="M5" s="49"/>
       <c r="N5" s="49"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="E6" s="49"/>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
@@ -1090,7 +1094,7 @@
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1115,7 @@
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1139,7 @@
       <c r="S8" s="54"/>
       <c r="T8" s="54"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20">
       <c r="E9" s="49"/>
       <c r="F9" s="48"/>
       <c r="G9" s="48"/>
@@ -1153,11 +1157,11 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="H11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1166,14 +1170,14 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="D13" s="4"/>
       <c r="H13" s="87"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -1184,7 +1188,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1202,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1212,20 +1216,20 @@
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="100" t="s">
+    <row r="18" spans="1:10">
+      <c r="B18" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="100"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1235,17 +1239,17 @@
       <c r="C19" s="27">
         <v>45282</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="100">
         <v>0.15</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="54"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="101"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="21"/>
       <c r="J19" s="21"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1266,7 +1270,7 @@
       <c r="I20" s="21"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1291,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1312,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15">
       <c r="B23" s="27">
         <f>C22</f>
         <v>200000</v>
@@ -1324,9 +1328,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="B24" s="21"/>
-      <c r="C24" s="100"/>
+      <c r="C24" s="99"/>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="54"/>
@@ -1335,7 +1339,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1351,7 +1355,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -1362,7 +1366,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
@@ -1376,23 +1380,23 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="B28" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="100"/>
+      <c r="F28" s="99"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
     </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1416,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1437,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1458,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1479,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15">
       <c r="B33" s="27">
         <f>C32</f>
         <v>106543</v>
@@ -1491,9 +1495,9 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="B34" s="21"/>
-      <c r="C34" s="100"/>
+      <c r="C34" s="99"/>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
@@ -1502,7 +1506,7 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1521,20 +1525,20 @@
       <c r="L35" s="4"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="102"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="21"/>
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
         <v>91</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>94</v>
@@ -1569,7 +1573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" t="s">
         <v>27</v>
@@ -1600,7 +1604,7 @@
         <v>708.4</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="3"/>
       <c r="B40" s="4">
         <f>$B$12</f>
@@ -1635,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="28" t="s">
         <v>92</v>
       </c>
@@ -1670,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15">
       <c r="A42" s="3"/>
       <c r="B42" s="4">
         <f>IF((B40+B41)&lt;=0,0,SUM(B40:B41))</f>
@@ -1705,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="3"/>
       <c r="B43" s="71">
         <v>3.5000000000000003E-2</v>
@@ -1734,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="3"/>
       <c r="B44" s="4">
         <f>B42*B43</f>
@@ -1753,7 +1757,7 @@
         <v>708.4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1775,7 +1779,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14">
       <c r="A46" s="28" t="s">
         <v>17</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>201.03379999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="72">
         <f>B44</f>
@@ -1811,7 +1815,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14">
       <c r="A48" s="28" t="s">
         <v>99</v>
       </c>
@@ -1830,7 +1834,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1841,7 +1845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="F51">
@@ -1893,7 +1897,7 @@
         <v>657.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="28" t="s">
         <v>97</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -1960,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15">
       <c r="A54" s="28" t="s">
         <v>91</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2019,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2031,7 +2035,7 @@
         <v>657.8</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2053,7 +2057,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2065,13 +2069,13 @@
         <v>150.43379999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="3" t="s">
         <v>100</v>
       </c>
@@ -2079,7 +2083,7 @@
       <c r="C60" s="4"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
         <v>94</v>
@@ -2089,7 +2093,7 @@
       </c>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" t="s">
         <v>27</v>
@@ -2099,7 +2103,7 @@
       </c>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="3"/>
       <c r="B63" s="4">
         <f>$B$12</f>
@@ -2111,7 +2115,7 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="28" t="s">
         <v>92</v>
       </c>
@@ -2123,7 +2127,7 @@
       </c>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="3"/>
       <c r="B65" s="4">
         <f>IF((B63+B64)&lt;=0,0,SUM(B63:B64))</f>
@@ -2135,7 +2139,7 @@
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="3"/>
       <c r="B66" s="71">
         <v>0.02</v>
@@ -2145,7 +2149,7 @@
       </c>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="3"/>
       <c r="B67" s="4">
         <f>B65*B66</f>
@@ -2157,13 +2161,13 @@
       </c>
       <c r="H67" s="13"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="H68" s="13"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="28" t="s">
         <v>17</v>
       </c>
@@ -2175,7 +2179,7 @@
       </c>
       <c r="H69" s="13"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="3"/>
       <c r="B70" s="72">
         <f>B67</f>
@@ -2187,7 +2191,7 @@
       </c>
       <c r="H70" s="13"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="28" t="s">
         <v>99</v>
       </c>
@@ -2201,13 +2205,13 @@
       </c>
       <c r="H71" s="13"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="H72" s="13"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="28" t="s">
         <v>100</v>
       </c>
@@ -2218,20 +2222,20 @@
       <c r="C73" s="4"/>
       <c r="H73" s="13"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="E74" s="13"/>
       <c r="F74" s="46"/>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="B76" s="11"/>
       <c r="C76" t="s">
         <v>13</v>
@@ -2240,7 +2244,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2257,7 +2261,7 @@
       <c r="K78" s="53"/>
       <c r="L78" s="53"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="B79" s="39">
         <f>-IF((B12&gt;=B25),IF((B12-B4)&gt;=B25,0,IF(((B12-B4)&lt;B25),((B25-(B12-B4))*D19))),IF(B12&lt;B25,B4*D19))</f>
         <v>0</v>
@@ -2271,7 +2275,7 @@
       <c r="K79" s="53"/>
       <c r="L79" s="53"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="B80" s="12">
         <f>IF(AND(B12&gt;=B29,B12&lt;=C29),B4*D29,IF(AND(B12&gt;B30,B12&lt;=C30),IF((B12-B30)&gt;B4,B4*D30,((B12-B30)*D30)+((B4-(B12-B30))*D29)),IF(AND(B12&gt;B31,B12&lt;=C31),IF((B12-B31)&gt;B4,B4*D31,IF((B12-B30)&gt;B4,(((B12-B31)*D31)+((B4-(B12-B31))*D30)),(((B12-B31)*D31))+((B31-B30)*D30)+((B4-(B12-B30))*D29))),IF(AND(B12&gt;B32,B12&lt;=C32),IF((B12-B32)&gt;B4,B4*D32,IF((B12-B31)&gt;B4,((B12-B32)*D32)+((B4-(B12-B32))*D31),IF((B12-B30)&gt;B4,((B12-B32)*D32)+((B32-B31)*D31)+((B4-(B12-B31))*D30),((B12-B32)*D32)+((B32-B31)*D31)+((B31-B30)*D30)+((B4-(B12-B30))*D29)))),IF(B12&gt;B33,IF((B12-B33)&gt;B4,B4*D33,IF((B12-B32)&gt;B4,((B12-B33)*D33)+((B4-(B12-B33))*D32),IF((B12-B31)&gt;B4,((B12-B33)*D33)+((B33-B32)*D32)+((B4-(B12-B32))*D31),IF((B12-B30)&gt;B4,((B12-B33)*D33)+((B33-B32)*D32)+((B32-B31)*D31)+((B4-(B12-B31))*D30),((B12-B33)*D33)+((B33-B32)*D32)+((B32-B31)*D31)+((B31-B30)*D30)+((B4-(B12-B30))*D29))))))))))</f>
         <v>50.6</v>
@@ -2285,7 +2289,7 @@
       <c r="K80" s="53"/>
       <c r="L80" s="53"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12">
       <c r="B81" s="39">
         <f>-IF((B12&gt;=B35),IF((B12-B4)&gt;=B35,0,IF(((B12-B4)&lt;B35),((B35-(B12-B4))*D29))),IF(B12&lt;B35,B4*D29))</f>
         <v>0</v>
@@ -2299,7 +2303,7 @@
       <c r="K81" s="53"/>
       <c r="L81" s="53"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12">
       <c r="B82" s="39">
         <f>B54</f>
         <v>-50.600000000000023</v>
@@ -2313,7 +2317,7 @@
       <c r="K82" s="53"/>
       <c r="L82" s="53"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12">
       <c r="B83" s="40">
         <f>-B73</f>
         <v>0</v>
@@ -2327,7 +2331,7 @@
       <c r="K83" s="53"/>
       <c r="L83" s="53"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="K84" s="53"/>
       <c r="L84" s="53"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12">
       <c r="G85" s="53"/>
       <c r="H85" s="53"/>
       <c r="I85" s="53"/>
@@ -2350,7 +2354,7 @@
       <c r="K85" s="53"/>
       <c r="L85" s="53"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12">
       <c r="G86" s="53"/>
       <c r="H86" s="53"/>
       <c r="I86" s="53"/>
@@ -2358,7 +2362,7 @@
       <c r="K86" s="53"/>
       <c r="L86" s="53"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12">
       <c r="G87" s="53"/>
       <c r="H87" s="53"/>
       <c r="I87" s="53"/>
@@ -2366,7 +2370,7 @@
       <c r="K87" s="53"/>
       <c r="L87" s="53"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12">
       <c r="A88" s="19" t="s">
         <v>39</v>
       </c>
@@ -2378,7 +2382,7 @@
       <c r="K88" s="53"/>
       <c r="L88" s="53"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
         <v>122</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
         <v>123</v>
       </c>
@@ -2405,16 +2409,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12">
       <c r="B92" s="13">
         <f>SUM(B89:B91)</f>
         <v>150</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12">
       <c r="B93" s="15"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1">
       <c r="A104" s="3"/>
     </row>
   </sheetData>
@@ -2424,7 +2428,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2432,34 +2441,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2476,7 +2485,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2493,7 +2502,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2522,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="12"/>
@@ -2527,7 +2536,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -2541,7 +2550,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2558,7 +2567,7 @@
       <c r="O7" s="21"/>
       <c r="P7" s="21"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2578,7 +2587,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -2592,7 +2601,7 @@
       <c r="O9" s="21"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="E10" s="21"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -2606,7 +2615,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -2620,7 +2629,7 @@
       <c r="O11" s="21"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2628,12 +2637,12 @@
         <v>139000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2642,18 +2651,18 @@
       <c r="G16" s="21"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="100" t="s">
+    <row r="17" spans="1:14">
+      <c r="B17" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="100"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2663,13 +2672,13 @@
       <c r="C18" s="27">
         <v>45282</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="100">
         <v>0.15</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="54"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="101"/>
+      <c r="H18" s="100"/>
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -2677,7 +2686,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2702,7 +2711,7 @@
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -2727,7 +2736,7 @@
       <c r="M20" s="5"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -2752,7 +2761,7 @@
       <c r="M21" s="5"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -2771,16 +2780,16 @@
       <c r="L22" s="5"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="B23" s="21"/>
-      <c r="C23" s="100"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2794,7 +2803,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -2804,7 +2813,7 @@
       <c r="H25" s="12"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -2816,24 +2825,24 @@
       <c r="G26" s="21"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="100"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
       <c r="J27" s="10"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2853,7 +2862,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2876,7 +2885,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2900,7 +2909,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2924,7 +2933,7 @@
       <c r="L31" s="13"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="B32" s="27">
         <f>C31</f>
         <v>106543</v>
@@ -2942,9 +2951,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="B33" s="21"/>
-      <c r="C33" s="100"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -2955,7 +2964,7 @@
       <c r="K33" s="16"/>
       <c r="L33" s="26"/>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2970,7 +2979,7 @@
       <c r="K34" s="16"/>
       <c r="L34" s="26"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
@@ -2980,7 +2989,7 @@
       <c r="F35" s="46"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>91</v>
       </c>
@@ -2994,7 +3003,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>94</v>
@@ -3017,7 +3026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>27</v>
@@ -3048,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>$B$12</f>
@@ -3083,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="28" t="s">
         <v>92</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>IF((B39+B40)&lt;=0,0,SUM(B39:B40))</f>
@@ -3153,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="3"/>
       <c r="B42" s="71">
         <v>3.5000000000000003E-2</v>
@@ -3182,7 +3191,7 @@
         <v>13146.217799999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="3"/>
       <c r="B43" s="4">
         <f>B41*B42</f>
@@ -3202,7 +3211,7 @@
         <v>13146.217799999999</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -3224,7 +3233,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="28" t="s">
         <v>17</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>12638.851599999998</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="3"/>
       <c r="B46" s="72">
         <f>B43</f>
@@ -3261,7 +3270,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="28" t="s">
         <v>99</v>
       </c>
@@ -3281,7 +3290,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3293,7 +3302,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="F50">
@@ -3346,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="28" t="s">
         <v>97</v>
       </c>
@@ -3384,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -3413,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="28" t="s">
         <v>91</v>
       </c>
@@ -3447,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -3472,7 +3481,7 @@
         <v>13293.217799999999</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3485,7 +3494,7 @@
         <v>13293.217799999999</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -3507,7 +3516,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3520,19 +3529,19 @@
         <v>12785.851599999998</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>94</v>
@@ -3541,7 +3550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>27</v>
@@ -3550,7 +3559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="4">
         <f>$B$12</f>
@@ -3561,7 +3570,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="28" t="s">
         <v>92</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="4">
         <f>IF((B62+B63)&lt;=0,0,SUM(B62:B63))</f>
@@ -3583,7 +3592,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12">
       <c r="A65" s="3"/>
       <c r="B65" s="71">
         <v>0.02</v>
@@ -3592,7 +3601,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12">
       <c r="A66" s="3"/>
       <c r="B66" s="4">
         <f>B64*B65</f>
@@ -3603,12 +3612,12 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12">
       <c r="A68" s="28" t="s">
         <v>17</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12">
       <c r="A69" s="3"/>
       <c r="B69" s="72">
         <f>B66</f>
@@ -3630,7 +3639,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12">
       <c r="A70" s="28" t="s">
         <v>99</v>
       </c>
@@ -3643,12 +3652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12">
       <c r="A72" s="28" t="s">
         <v>100</v>
       </c>
@@ -3658,12 +3667,12 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12">
       <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
@@ -3673,7 +3682,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12">
       <c r="B75" s="11"/>
       <c r="C75" t="s">
         <v>13</v>
@@ -3683,14 +3692,14 @@
       <c r="K75" s="4"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12">
       <c r="H76" s="38"/>
       <c r="I76" s="18"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -3705,7 +3714,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12">
       <c r="B78" s="39">
         <f>-IF(B12&gt;=B24,0,IF(B12&lt;B24,IF((B12+B4)&gt;B24,(B24-B12)*D18,B4*D18)))</f>
         <v>0</v>
@@ -3717,7 +3726,7 @@
       <c r="K78" s="4"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12">
       <c r="B79" s="12">
         <f>IF(AND((B4+B12)&gt;=B28,(B4+B12)&lt;=C28),B4*D28,IF(AND((B4+B12)&gt;B29,(B4+B12)&lt;=C29),IF((B4+B12-B29)&gt;B4,B4*D29,((B4+B12-B29)*D29)+((B4-(B4+B12-B29))*D28)),IF(AND((B4+B12)&gt;B30,(B4+B12)&lt;=C30),IF((B4+B12-B30)&gt;B4,B4*D30,IF((B4+B12-B29)&gt;B4,(((B4+B12-B30)*D30)+((B4-(B4+B12-B30))*D29)),((B4+B12-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28))),IF(AND((B4+B12)&gt;B31,(B4+B12)&lt;=C31),IF((B4+B12-B31)&gt;B4,B4*D31,IF((B4+B12-B30)&gt;B4,(((B4+B12-B31)*D31)+((B4-(B4+B12-B31))*D30)),IF((B4+B12-B29)&gt;B4,(((B4+B12-B31)*D31)+((C30-B30)*D30)+((B4-(B4+B12-B30))*D29)),((B4+B12-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28)))),IF((B4+B12)&gt;B32,IF((B4+B12-B32)&gt;B4,B4*D32,IF((B4+B12-B31)&gt;B4,(((B4+B12-B32)*D32)+((B4-(B4+B12-B32))*D31)),IF((B4+B12-B30)&gt;B4,(((B4+B12-B32)*D32)+((C31-B31)*D31)+((B4-(B4+B12-B31))*D30)),IF((B4+B12-B29)&gt;B4,(((B4+B12-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((B4-(B4+B12-B30))*D29)),((B4+B12-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B4-(B4+B12-B29))*D28))))))))))</f>
         <v>147</v>
@@ -3726,7 +3735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12">
       <c r="B80" s="39">
         <f>-IF(B12&gt;=B34,0,IF(B12&lt;B34,IF((B12+B4)&gt;B34,(B34-B12)*D28,B4*D28)))</f>
         <v>0</v>
@@ -3735,7 +3744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="B81" s="41">
         <f>-B53</f>
         <v>0</v>
@@ -3754,7 +3763,7 @@
       <c r="L81" s="50"/>
       <c r="M81" s="49"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="B82" s="40">
         <f>B72</f>
         <v>0</v>
@@ -3773,7 +3782,7 @@
       <c r="L82" s="50"/>
       <c r="M82" s="49"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="10" t="s">
         <v>22</v>
       </c>
@@ -3790,7 +3799,7 @@
       <c r="L83" s="50"/>
       <c r="M83" s="49"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="E84" s="18"/>
       <c r="F84" s="51"/>
       <c r="G84" s="49"/>
@@ -3802,7 +3811,7 @@
       <c r="M84" s="49"/>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="B85" s="13"/>
       <c r="F85" s="49"/>
       <c r="G85" s="49"/>
@@ -3813,7 +3822,7 @@
       <c r="L85" s="49"/>
       <c r="M85" s="49"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="19" t="s">
         <v>39</v>
       </c>
@@ -3827,7 +3836,7 @@
       <c r="L86" s="49"/>
       <c r="M86" s="49"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>124</v>
       </c>
@@ -3844,7 +3853,7 @@
       <c r="L87" s="49"/>
       <c r="M87" s="49"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -3861,7 +3870,7 @@
       <c r="L88" s="49"/>
       <c r="M88" s="49"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -3878,7 +3887,7 @@
       <c r="L89" s="49"/>
       <c r="M89" s="49"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="B90" s="13">
         <f>SUM(B87:B89)</f>
         <v>407</v>
@@ -3892,7 +3901,7 @@
       <c r="L90" s="49"/>
       <c r="M90" s="49"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="B91" s="13"/>
       <c r="F91" s="49"/>
       <c r="G91" s="49"/>
@@ -3903,7 +3912,7 @@
       <c r="L91" s="49"/>
       <c r="M91" s="49"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="B92" s="13"/>
       <c r="F92" s="49"/>
       <c r="G92" s="49"/>
@@ -3914,7 +3923,7 @@
       <c r="L92" s="49"/>
       <c r="M92" s="49"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="B93" s="13"/>
       <c r="F93" s="49"/>
       <c r="G93" s="49"/>
@@ -3925,7 +3934,7 @@
       <c r="L93" s="49"/>
       <c r="M93" s="49"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="B94" s="13"/>
       <c r="F94" s="49"/>
       <c r="G94" s="49"/>
@@ -3936,7 +3945,7 @@
       <c r="L94" s="49"/>
       <c r="M94" s="49"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="B95" s="15"/>
       <c r="F95" s="49"/>
       <c r="G95" s="49"/>
@@ -3947,7 +3956,7 @@
       <c r="L95" s="49"/>
       <c r="M95" s="49"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
       <c r="H96" s="48"/>
@@ -3957,7 +3966,7 @@
       <c r="L96" s="49"/>
       <c r="M96" s="49"/>
     </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:13">
       <c r="F97" s="49"/>
       <c r="G97" s="49"/>
       <c r="H97" s="48"/>
@@ -3967,7 +3976,7 @@
       <c r="L97" s="49"/>
       <c r="M97" s="49"/>
     </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:13">
       <c r="F98" s="49"/>
       <c r="G98" s="49"/>
       <c r="H98" s="48"/>
@@ -3977,16 +3986,21 @@
       <c r="L98" s="49"/>
       <c r="M98" s="49"/>
     </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:13">
       <c r="H99" s="12"/>
     </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:13">
       <c r="H101" s="42"/>
       <c r="M101" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3994,28 +4008,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q171"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:D38"/>
+    <sheetView topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -4030,7 +4044,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4044,7 +4058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -4056,7 +4070,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="E4" t="s">
         <v>58</v>
       </c>
@@ -4071,12 +4085,12 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="58">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -4092,7 +4106,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="28">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
@@ -4111,7 +4125,7 @@
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>41</v>
       </c>
@@ -4128,7 +4142,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="28"/>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -4141,7 +4155,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="30" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +4171,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
@@ -4176,12 +4190,12 @@
       <c r="M10" s="85"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -4195,7 +4209,7 @@
       <c r="M11" s="85"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="21" customFormat="1">
       <c r="A12" s="59"/>
       <c r="B12"/>
       <c r="D12" s="49"/>
@@ -4209,7 +4223,7 @@
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4225,7 +4239,7 @@
       <c r="M13" s="49"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4244,7 +4258,7 @@
       <c r="M14" s="49"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -4257,7 +4271,7 @@
       <c r="M15" s="49"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
       <c r="F16" s="83"/>
@@ -4270,7 +4284,7 @@
       <c r="M16" s="49"/>
       <c r="N16" s="21"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="D17" s="49"/>
       <c r="E17" s="49"/>
       <c r="F17" s="49"/>
@@ -4283,40 +4297,40 @@
       <c r="M17" s="49"/>
       <c r="N17" s="21"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="100" t="s">
+    <row r="21" spans="1:14">
+      <c r="B21" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="100"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -4326,17 +4340,17 @@
       <c r="C22" s="27">
         <v>45282</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="100">
         <v>0.15</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="54"/>
       <c r="G22" s="27"/>
-      <c r="H22" s="101"/>
+      <c r="H22" s="100"/>
       <c r="I22" s="21"/>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -4357,7 +4371,7 @@
       <c r="I23" s="21"/>
       <c r="N23" s="7"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -4378,7 +4392,7 @@
       <c r="I24" s="21"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -4399,7 +4413,7 @@
       <c r="I25" s="21"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15">
       <c r="B26" s="27">
         <f>C25</f>
         <v>200000</v>
@@ -4415,9 +4429,9 @@
       <c r="I26" s="21"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="B27" s="21"/>
-      <c r="C27" s="100"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -4425,7 +4439,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="21"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4440,7 +4454,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="21"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -4450,7 +4464,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="21"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -4463,24 +4477,24 @@
       <c r="H30" s="12"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-      <c r="F31" s="100"/>
+      <c r="F31" s="99"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="49"/>
       <c r="J31" s="32"/>
       <c r="K31" s="75"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -4501,7 +4515,7 @@
       <c r="J32" s="69"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -4524,7 +4538,7 @@
       <c r="K33" s="55"/>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -4548,7 +4562,7 @@
       <c r="L34" s="13"/>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -4572,7 +4586,7 @@
       <c r="L35" s="13"/>
       <c r="N35" s="4"/>
     </row>
-    <row r="36" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15">
       <c r="B36" s="27">
         <f>C35</f>
         <v>106543</v>
@@ -4590,9 +4604,9 @@
       <c r="K36" s="54"/>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="B37" s="21"/>
-      <c r="C37" s="100"/>
+      <c r="C37" s="99"/>
       <c r="D37" s="21"/>
       <c r="H37" s="43"/>
       <c r="I37" s="49"/>
@@ -4600,7 +4614,7 @@
       <c r="K37" s="20"/>
       <c r="L37" s="26"/>
     </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4615,7 +4629,7 @@
       <c r="K38" s="20"/>
       <c r="L38" s="26"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" t="s">
@@ -4628,7 +4642,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="3" t="s">
         <v>91</v>
       </c>
@@ -4643,7 +4657,7 @@
       </c>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>94</v>
@@ -4666,7 +4680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
         <v>27</v>
@@ -4690,22 +4704,22 @@
       </c>
       <c r="J42" s="12">
         <f>IF(AND($B$18&gt;=F42,$B$18&lt;G42),($B$18-F42)*H42,0)</f>
-        <v>0</v>
+        <v>455.4</v>
       </c>
       <c r="K42" s="55">
         <f>(IF(J42=0,0,I42+J42))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="3"/>
       <c r="B43" s="4">
         <f>$B$18</f>
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="C43" s="4">
         <f ca="1">$B$18+$B$5+$B$104</f>
-        <v>141000</v>
+        <v>16203.918322081303</v>
       </c>
       <c r="F43" s="5">
         <f>G42</f>
@@ -4732,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" s="28" t="s">
         <v>92</v>
       </c>
@@ -4767,15 +4781,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" s="3"/>
       <c r="B45" s="4">
         <f>IF((B43+B44)&lt;=0,0,SUM(B43:B44))</f>
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="C45" s="4">
         <f ca="1">IF((C43+C44)&lt;=0,0,SUM(C43:C44))</f>
-        <v>122000</v>
+        <v>0</v>
       </c>
       <c r="F45" s="5">
         <f>G44</f>
@@ -4802,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="15">
       <c r="A46" s="3"/>
       <c r="B46" s="71">
         <v>3.5000000000000003E-2</v>
@@ -4824,22 +4838,22 @@
       </c>
       <c r="J46" s="12">
         <f>IF($B$18&gt;=F46,($B$18-F46)*H46,0)</f>
-        <v>4771.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="K46" s="79">
         <f>(IF(J46=0,0,I46+J46))</f>
-        <v>13146.217799999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="3"/>
       <c r="B47" s="4">
         <f>B45*B46</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="C47" s="4">
         <f ca="1">C45*C46</f>
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="F47" s="13"/>
       <c r="G47" s="46"/>
@@ -4848,10 +4862,10 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12">
         <f>SUM(K42:K46)</f>
-        <v>13146.217799999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4870,10 +4884,10 @@
       </c>
       <c r="K48" s="56">
         <f>IF($B$18&lt;I48,$B$18*J48,I48*J48)</f>
-        <v>507.36619999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="28" t="s">
         <v>17</v>
       </c>
@@ -4890,18 +4904,18 @@
       <c r="J49" s="20"/>
       <c r="K49" s="13">
         <f>IF((K47-K48)&lt;=0,0,K47-K48)</f>
-        <v>12638.851599999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="3"/>
       <c r="B50" s="72">
         <f>B47</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="C50" s="72">
         <f ca="1">C47</f>
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="46"/>
@@ -4910,17 +4924,17 @@
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B51" s="4">
         <f>IF((B49-B50)&lt;=0,0,B49-B50)</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="C51" s="4">
         <f ca="1">IF((C49-C50)&lt;=0,0,C49-C50)</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D51" s="4"/>
       <c r="F51" s="13"/>
@@ -4930,7 +4944,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="12"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4943,17 +4957,17 @@
       </c>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>96</v>
       </c>
       <c r="B53" s="4">
         <f>K49</f>
-        <v>12638.851599999998</v>
+        <v>0</v>
       </c>
       <c r="C53" s="4">
         <f ca="1">K65</f>
-        <v>12932.851599999998</v>
+        <v>189.02898648777256</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>98</v>
@@ -4970,7 +4984,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="F54">
@@ -4989,14 +5003,14 @@
       </c>
       <c r="J54" s="12">
         <f ca="1">IF(AND(($B$18+$B$5+$B$104)&gt;=F54,($B$18+$B$5+$B$104)&lt;G54),($B$18+$B$5+$B$104-F54)*H54,0)</f>
-        <v>0</v>
+        <v>819.9182670973139</v>
       </c>
       <c r="K54" s="55">
         <f t="shared" ref="K54:K58" ca="1" si="3">(IF(J54=0,0,I54+J54))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>819.9182670973139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15">
       <c r="A55" s="28" t="s">
         <v>97</v>
       </c>
@@ -5006,7 +5020,7 @@
       </c>
       <c r="C55" s="4">
         <f ca="1">MIN(C51,C53)</f>
-        <v>0</v>
+        <v>189.02898648777256</v>
       </c>
       <c r="D55" s="26"/>
       <c r="F55" s="5">
@@ -5034,7 +5048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5063,13 +5077,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15">
       <c r="A57" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B57" s="37">
         <f ca="1">C55-B55</f>
-        <v>0</v>
+        <v>189.02898648777256</v>
       </c>
       <c r="C57" s="4"/>
       <c r="F57" s="5">
@@ -5097,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5115,14 +5129,14 @@
       </c>
       <c r="J58" s="12">
         <f ca="1">IF(($B$18+$B$5+$B$104)&gt;=F58,($B$18+$B$5+$B$104-F58)*H58,0)</f>
-        <v>5065.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="K58" s="79">
         <f t="shared" ca="1" si="3"/>
-        <v>13440.217799999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5133,10 +5147,10 @@
       <c r="J59" s="21"/>
       <c r="K59" s="55">
         <f ca="1">SUM(K54:K58)</f>
-        <v>13440.217799999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>819.9182670973139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5158,7 +5172,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5169,14 +5183,17 @@
       <c r="J61" s="21"/>
       <c r="K61" s="13">
         <f ca="1">IF((K59-K60)&lt;=0,0,K59-K60)</f>
-        <v>12932.851599999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>312.55206709731391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="E62" s="13"/>
       <c r="F62" s="46"/>
+      <c r="G62" t="s">
+        <v>127</v>
+      </c>
       <c r="H62" s="66" t="s">
         <v>104</v>
       </c>
@@ -5187,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="3" t="s">
         <v>100</v>
       </c>
@@ -5197,16 +5214,19 @@
       <c r="J63" s="21"/>
       <c r="K63" s="12">
         <f ca="1">K61-K62</f>
-        <v>12932.851599999998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>312.55206709731391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>103</v>
+      </c>
+      <c r="G64" t="s">
+        <v>128</v>
       </c>
       <c r="H64" s="66" t="s">
         <v>105</v>
@@ -5215,10 +5235,10 @@
       <c r="J64" s="21"/>
       <c r="K64" s="80">
         <f ca="1">MIN(B136,K63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+        <v>123.52308060954137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="3"/>
       <c r="B65" t="s">
         <v>27</v>
@@ -5230,24 +5250,24 @@
       <c r="J65" s="21"/>
       <c r="K65" s="12">
         <f ca="1">K63-K64</f>
-        <v>12932.851599999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+        <v>189.02898648777256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="3"/>
       <c r="B66" s="4">
         <f>$B$18</f>
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="C66" s="4">
         <f ca="1">$B$18+$B$5+$B$104</f>
-        <v>141000</v>
+        <v>16203.918322081303</v>
       </c>
       <c r="I66" s="49"/>
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" s="28" t="s">
         <v>92</v>
       </c>
@@ -5261,21 +5281,21 @@
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" s="3"/>
       <c r="B68" s="4">
         <f>IF((B66+B67)&lt;=0,0,SUM(B66:B67))</f>
-        <v>124000</v>
+        <v>0</v>
       </c>
       <c r="C68" s="4">
         <f ca="1">IF((C66+C67)&lt;=0,0,SUM(C66:C67))</f>
-        <v>126000</v>
+        <v>1203.9183220813029</v>
       </c>
       <c r="I68" s="49"/>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" s="3"/>
       <c r="B69" s="71">
         <v>0.02</v>
@@ -5287,21 +5307,21 @@
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" s="3"/>
       <c r="B70" s="4">
         <f>B68*B69</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="C70" s="4">
         <f ca="1">C68*C69</f>
-        <v>2520</v>
+        <v>24.078366441626059</v>
       </c>
       <c r="I70" s="49"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5309,7 +5329,7 @@
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" s="28" t="s">
         <v>17</v>
       </c>
@@ -5323,37 +5343,37 @@
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" s="3"/>
       <c r="B73" s="72">
         <f>B70</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="C73" s="72">
         <f ca="1">C70</f>
-        <v>2520</v>
+        <v>24.078366441626059</v>
       </c>
       <c r="I73" s="49"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B74" s="4">
         <f>IF((B72-B73)&lt;=0,0,B72-B73)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C74" s="4">
         <f ca="1">IF((C72-C73)&lt;=0,0,C72-C73)</f>
-        <v>0</v>
+        <v>50.921633558373941</v>
       </c>
       <c r="I74" s="49"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -5361,13 +5381,13 @@
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B76" s="37">
         <f ca="1">B74-C74</f>
-        <v>0</v>
+        <v>24.078366441626059</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="21"/>
@@ -5375,7 +5395,7 @@
       <c r="J76" s="21"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="21"/>
@@ -5386,7 +5406,7 @@
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" s="3" t="s">
         <v>50</v>
       </c>
@@ -5401,12 +5421,12 @@
       <c r="K78" s="21"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="B79" s="39"/>
       <c r="C79" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D79" s="100"/>
+      <c r="D79" s="99"/>
       <c r="E79" s="13"/>
       <c r="F79" s="18"/>
       <c r="G79" s="4"/>
@@ -5415,14 +5435,14 @@
       <c r="K79" s="21"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="33">
         <v>0.38</v>
       </c>
-      <c r="D80" s="103"/>
+      <c r="D80" s="102"/>
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
       <c r="H80"/>
@@ -5430,14 +5450,14 @@
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B81" s="33">
         <v>0.17</v>
       </c>
-      <c r="D81" s="103"/>
+      <c r="D81" s="102"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
       <c r="H81"/>
@@ -5445,7 +5465,7 @@
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="28" t="s">
         <v>43</v>
       </c>
@@ -5461,7 +5481,7 @@
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="28" t="s">
         <v>45</v>
       </c>
@@ -5477,13 +5497,13 @@
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B84" s="44">
         <f>IF(B6="non-canadian corporation",B5,0)</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="30"/>
@@ -5493,24 +5513,24 @@
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="B85" s="18">
         <f>SUM(B82:B84)</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D85" s="21"/>
       <c r="I85" s="49"/>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="B86" s="18"/>
       <c r="D86" s="21"/>
       <c r="I86" s="49"/>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="19" t="s">
         <v>40</v>
       </c>
@@ -5526,7 +5546,7 @@
       <c r="K87" s="21"/>
       <c r="Q87" s="18"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -5537,7 +5557,7 @@
       <c r="C88" s="57">
         <v>0.1502</v>
       </c>
-      <c r="D88" s="104"/>
+      <c r="D88" s="103"/>
       <c r="E88" s="13"/>
       <c r="F88" s="18"/>
       <c r="G88" s="4"/>
@@ -5547,7 +5567,7 @@
       <c r="K88" s="21"/>
       <c r="Q88" s="18"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>48</v>
       </c>
@@ -5558,7 +5578,7 @@
       <c r="C89" s="57">
         <v>0.105217</v>
       </c>
-      <c r="D89" s="104"/>
+      <c r="D89" s="103"/>
       <c r="E89" s="13"/>
       <c r="F89" s="18"/>
       <c r="G89" s="4"/>
@@ -5568,7 +5588,7 @@
       <c r="K89" s="21"/>
       <c r="Q89" s="18"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="B90" s="39">
         <f ca="1">SUM(B88:B89)</f>
         <v>0</v>
@@ -5584,7 +5604,7 @@
       <c r="K90" s="21"/>
       <c r="Q90" s="18"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="B91" s="39"/>
       <c r="C91" s="4"/>
       <c r="D91" s="21"/>
@@ -5597,7 +5617,7 @@
       <c r="K91" s="21"/>
       <c r="Q91" s="18"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="A92" s="19" t="s">
         <v>101</v>
       </c>
@@ -5613,7 +5633,7 @@
       <c r="K92" s="21"/>
       <c r="Q92" s="18"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -5624,13 +5644,13 @@
       <c r="C93" s="57">
         <v>0.1</v>
       </c>
-      <c r="D93" s="104"/>
+      <c r="D93" s="103"/>
       <c r="I93" s="49"/>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
       <c r="Q93" s="18"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -5641,13 +5661,13 @@
       <c r="C94" s="60">
         <v>2.47E-2</v>
       </c>
-      <c r="D94" s="105"/>
+      <c r="D94" s="104"/>
       <c r="I94" s="49"/>
       <c r="J94" s="21"/>
       <c r="K94" s="21"/>
       <c r="Q94" s="18"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="B95" s="39">
         <f ca="1">SUM(B93:B94)</f>
         <v>0</v>
@@ -5659,7 +5679,7 @@
       <c r="K95" s="21"/>
       <c r="Q95" s="18"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="B96" s="39"/>
       <c r="C96" s="4"/>
       <c r="D96" s="21"/>
@@ -5668,7 +5688,7 @@
       <c r="K96" s="21"/>
       <c r="Q96" s="18"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="A97" s="3" t="s">
         <v>53</v>
       </c>
@@ -5679,7 +5699,7 @@
       <c r="K97" s="21"/>
       <c r="Q97" s="18"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="B98" s="39"/>
       <c r="C98" s="4"/>
       <c r="I98" s="49"/>
@@ -5687,7 +5707,7 @@
       <c r="K98" s="21"/>
       <c r="Q98" s="18"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="19" t="s">
         <v>54</v>
       </c>
@@ -5699,13 +5719,13 @@
       <c r="K99" s="21"/>
       <c r="Q99" s="18"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>74</v>
       </c>
       <c r="B100" s="39">
         <f>$B$5</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="C100" s="62" t="s">
         <v>31</v>
@@ -5728,13 +5748,13 @@
       <c r="K100" s="21"/>
       <c r="Q100" s="18"/>
     </row>
-    <row r="101" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="15">
       <c r="A101" t="s">
         <v>75</v>
       </c>
       <c r="B101" s="39">
         <f>IF($B$10="US",-IF(($B$11/$B$5)&gt;15%,$B$11-($B$5*15%),0),0)</f>
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C101" s="62" t="s">
         <v>32</v>
@@ -5758,16 +5778,16 @@
       </c>
       <c r="I101" s="12">
         <f ca="1">IF(AND(($B$18+$B$5+$B$104)&gt;=E101,($B$18+$B$5+$B$104)&lt;F101),($B$18+$B$5+$B$104-E101)*G101,0)</f>
-        <v>0</v>
+        <v>2430.5877483121953</v>
       </c>
       <c r="J101" s="12">
         <f ca="1">(IF(I101=0,0,H101+I101))</f>
-        <v>0</v>
+        <v>2430.5877483121953</v>
       </c>
       <c r="K101" s="21"/>
       <c r="Q101" s="18"/>
     </row>
-    <row r="102" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" ht="15">
       <c r="A102" t="s">
         <v>76</v>
       </c>
@@ -5806,13 +5826,13 @@
       <c r="K102" s="21"/>
       <c r="Q102" s="18"/>
     </row>
-    <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15">
       <c r="A103" t="s">
         <v>81</v>
       </c>
       <c r="B103" s="40">
         <f ca="1">-B138</f>
-        <v>0</v>
+        <v>-796.08167791869789</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" t="s">
@@ -5845,13 +5865,13 @@
       <c r="K103" s="21"/>
       <c r="Q103" s="18"/>
     </row>
-    <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15">
       <c r="A104" t="s">
         <v>83</v>
       </c>
       <c r="B104" s="40">
         <f ca="1">SUM(B102:B103)</f>
-        <v>0</v>
+        <v>-796.08167791869789</v>
       </c>
       <c r="C104" s="62" t="s">
         <v>82</v>
@@ -5877,22 +5897,22 @@
       </c>
       <c r="I104" s="12">
         <f ca="1">IF(AND(($B$18+$B$5+$B$104)&gt;=E104,($B$18+$B$5+$B$104)&lt;F104),($B$18+$B$5+$B$104-E104)*G104,0)</f>
-        <v>177.48</v>
+        <v>0</v>
       </c>
       <c r="J104" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>29206.884999999998</v>
+        <v>0</v>
       </c>
       <c r="K104" s="21"/>
       <c r="Q104" s="18"/>
     </row>
-    <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15">
       <c r="A105" t="s">
         <v>56</v>
       </c>
       <c r="B105" s="39">
         <f ca="1">B100+B101+B104</f>
-        <v>2000</v>
+        <v>6403.918322081302</v>
       </c>
       <c r="C105" s="62" t="s">
         <v>84</v>
@@ -5920,7 +5940,7 @@
       <c r="K105" s="21"/>
       <c r="Q105" s="18"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="B106" s="39"/>
       <c r="C106" s="4"/>
       <c r="E106" s="13"/>
@@ -5930,18 +5950,18 @@
       <c r="I106" s="49"/>
       <c r="J106" s="12">
         <f ca="1">SUM(J101:J105)</f>
-        <v>29206.884999999998</v>
+        <v>2430.5877483121953</v>
       </c>
       <c r="K106" s="21"/>
       <c r="Q106" s="18"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>6</v>
       </c>
       <c r="B107" s="41">
         <f>$B$5+$B$18</f>
-        <v>141000</v>
+        <v>17000</v>
       </c>
       <c r="C107" s="62" t="s">
         <v>31</v>
@@ -5964,7 +5984,7 @@
       <c r="K107" s="21"/>
       <c r="Q107" s="18"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -5977,18 +5997,21 @@
       <c r="I108" s="49"/>
       <c r="J108" s="13">
         <f ca="1">IF((J106-J107)&lt;=0,0,J106-J107)</f>
-        <v>27485.785</v>
-      </c>
-      <c r="K108" s="21"/>
+        <v>709.48774831219544</v>
+      </c>
+      <c r="K108" s="21">
+        <f>2431-1721</f>
+        <v>710</v>
+      </c>
       <c r="Q108" s="18"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>81</v>
       </c>
       <c r="B109" s="40">
         <f ca="1">B103</f>
-        <v>0</v>
+        <v>-796.08167791869789</v>
       </c>
       <c r="C109" s="4"/>
       <c r="G109" s="66"/>
@@ -5997,13 +6020,13 @@
       <c r="K109" s="21"/>
       <c r="Q109" s="18"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>83</v>
       </c>
       <c r="B110" s="40">
         <f ca="1">SUM(B108:B109)</f>
-        <v>0</v>
+        <v>-796.08167791869789</v>
       </c>
       <c r="C110" s="62" t="s">
         <v>32</v>
@@ -6015,13 +6038,13 @@
       <c r="K110" s="21"/>
       <c r="Q110" s="18"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>77</v>
       </c>
       <c r="B111" s="39">
         <f ca="1">B107+B110</f>
-        <v>141000</v>
+        <v>16203.918322081303</v>
       </c>
       <c r="C111" s="62" t="s">
         <v>85</v>
@@ -6031,7 +6054,7 @@
       <c r="K111" s="21"/>
       <c r="Q111" s="18"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="B112" s="39"/>
       <c r="C112" s="4"/>
       <c r="I112" s="49"/>
@@ -6039,13 +6062,13 @@
       <c r="K112" s="21"/>
       <c r="Q112" s="18"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>57</v>
       </c>
       <c r="B113" s="61">
         <f ca="1">B105/B111</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.39520801048192117</v>
       </c>
       <c r="C113" s="4"/>
       <c r="I113" s="49"/>
@@ -6053,7 +6076,7 @@
       <c r="K113" s="21"/>
       <c r="Q113" s="18"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17">
       <c r="B114" s="39"/>
       <c r="C114" s="4"/>
       <c r="I114" s="49"/>
@@ -6061,13 +6084,13 @@
       <c r="K114" s="21"/>
       <c r="Q114" s="18"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>55</v>
       </c>
       <c r="B115" s="39">
         <f ca="1">J108</f>
-        <v>27485.785</v>
+        <v>709.48774831219544</v>
       </c>
       <c r="C115" s="4"/>
       <c r="I115" s="49"/>
@@ -6075,7 +6098,7 @@
       <c r="K115" s="21"/>
       <c r="Q115" s="18"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17">
       <c r="B116" s="39"/>
       <c r="C116" s="4"/>
       <c r="E116" s="68"/>
@@ -6087,13 +6110,13 @@
       <c r="K116" s="21"/>
       <c r="Q116" s="18"/>
     </row>
-    <row r="117" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" ht="15">
       <c r="A117" t="s">
         <v>67</v>
       </c>
       <c r="B117" s="39">
         <f ca="1">B115*B113</f>
-        <v>389.86929078014185</v>
+        <v>280.39524147176076</v>
       </c>
       <c r="C117" s="62" t="s">
         <v>31</v>
@@ -6106,13 +6129,13 @@
       <c r="K117" s="21"/>
       <c r="Q117" s="18"/>
     </row>
-    <row r="118" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" ht="15">
       <c r="A118" t="s">
         <v>68</v>
       </c>
       <c r="B118" s="39">
         <f>IF(B6="Canadian Corporation",0,MIN($B$11,$B$5*15%))</f>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C118" s="62" t="s">
         <v>32</v>
@@ -6125,7 +6148,7 @@
       <c r="K118" s="21"/>
       <c r="Q118" s="18"/>
     </row>
-    <row r="119" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" ht="15">
       <c r="B119" s="39"/>
       <c r="C119" s="4"/>
       <c r="E119" s="5"/>
@@ -6136,13 +6159,13 @@
       <c r="K119" s="21"/>
       <c r="Q119" s="18"/>
     </row>
-    <row r="120" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" ht="15">
       <c r="A120" t="s">
         <v>69</v>
       </c>
       <c r="B120" s="65">
         <f ca="1">MIN(B117,B118)</f>
-        <v>200</v>
+        <v>280.39524147176076</v>
       </c>
       <c r="C120" s="62" t="s">
         <v>87</v>
@@ -6155,7 +6178,7 @@
       <c r="K120" s="21"/>
       <c r="Q120" s="18"/>
     </row>
-    <row r="121" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" ht="15">
       <c r="B121" s="65"/>
       <c r="C121" s="4"/>
       <c r="E121" s="5"/>
@@ -6167,7 +6190,7 @@
       <c r="K121" s="21"/>
       <c r="Q121" s="18"/>
     </row>
-    <row r="122" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" ht="15">
       <c r="B122" s="65"/>
       <c r="C122" s="4"/>
       <c r="E122" s="13"/>
@@ -6179,7 +6202,7 @@
       <c r="K122" s="21"/>
       <c r="Q122" s="18"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17">
       <c r="A123" s="19" t="s">
         <v>70</v>
       </c>
@@ -6192,13 +6215,13 @@
       <c r="L123" s="19"/>
       <c r="Q123" s="18"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>56</v>
       </c>
       <c r="B124" s="39">
         <f ca="1">B105</f>
-        <v>2000</v>
+        <v>6403.918322081302</v>
       </c>
       <c r="C124" s="4"/>
       <c r="D124" s="19" t="s">
@@ -6219,13 +6242,13 @@
       <c r="K124" s="55"/>
       <c r="Q124" s="18"/>
     </row>
-    <row r="125" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" ht="15">
       <c r="A125" t="s">
         <v>23</v>
       </c>
       <c r="B125" s="41">
         <f ca="1">B111</f>
-        <v>141000</v>
+        <v>16203.918322081303</v>
       </c>
       <c r="C125" s="4"/>
       <c r="D125" t="s">
@@ -6247,22 +6270,22 @@
       </c>
       <c r="I125" s="48">
         <f ca="1">IF(AND(($B$18+$B$5+$B$104)&gt;=E125,($B$18+$B$5+$B$104)&lt;F125),($B$18+$B$5+$B$104-E125)*G125,0)</f>
-        <v>0</v>
+        <v>819.9182670973139</v>
       </c>
       <c r="J125" s="12">
         <f ca="1">(IF(I125=0,0,H125+I125))</f>
-        <v>0</v>
+        <v>819.9182670973139</v>
       </c>
       <c r="K125" s="21"/>
       <c r="Q125" s="18"/>
     </row>
-    <row r="126" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" ht="15">
       <c r="A126" t="s">
         <v>57</v>
       </c>
       <c r="B126" s="61">
         <f ca="1">B124/B125</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.39520801048192117</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" t="s">
@@ -6295,7 +6318,7 @@
       <c r="K126" s="21"/>
       <c r="Q126" s="18"/>
     </row>
-    <row r="127" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" ht="15">
       <c r="B127" s="39"/>
       <c r="C127" s="4"/>
       <c r="D127" t="s">
@@ -6328,13 +6351,13 @@
       <c r="K127" s="21"/>
       <c r="Q127" s="18"/>
     </row>
-    <row r="128" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" ht="15">
       <c r="A128" t="s">
         <v>71</v>
       </c>
       <c r="B128" s="39">
         <f ca="1">J132</f>
-        <v>12932.851599999998</v>
+        <v>312.55206709731391</v>
       </c>
       <c r="C128" s="4"/>
       <c r="D128" t="s">
@@ -6367,7 +6390,7 @@
       <c r="K128" s="21"/>
       <c r="Q128" s="18"/>
     </row>
-    <row r="129" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" ht="15">
       <c r="B129" s="39"/>
       <c r="C129" s="4"/>
       <c r="E129" s="5">
@@ -6384,22 +6407,22 @@
       </c>
       <c r="I129" s="48">
         <f ca="1">IF(($B$18+$B$5+$B$104)&gt;=E129,($B$18+$B$5+$B$104-E129)*G129,0)</f>
-        <v>5065.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="J129" s="56">
         <f t="shared" ca="1" si="8"/>
-        <v>13440.217799999999</v>
+        <v>0</v>
       </c>
       <c r="K129" s="21"/>
       <c r="Q129" s="18"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
         <v>67</v>
       </c>
       <c r="B130" s="39">
         <f ca="1">B128*B126</f>
-        <v>183.44470354609925</v>
+        <v>123.52308060954137</v>
       </c>
       <c r="C130" s="62" t="s">
         <v>31</v>
@@ -6411,12 +6434,12 @@
       <c r="I130" s="49"/>
       <c r="J130" s="55">
         <f ca="1">SUM(J125:J129)</f>
-        <v>13440.217799999999</v>
+        <v>819.9182670973139</v>
       </c>
       <c r="K130" s="21"/>
       <c r="Q130" s="18"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="B131" s="39"/>
       <c r="C131" s="62"/>
       <c r="E131" s="13"/>
@@ -6439,13 +6462,13 @@
       <c r="K131" s="21"/>
       <c r="Q131" s="18"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>68</v>
       </c>
       <c r="B132" s="39">
         <f>B118</f>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E132" s="38"/>
       <c r="F132" s="21"/>
@@ -6454,17 +6477,17 @@
       <c r="I132" s="49"/>
       <c r="J132" s="13">
         <f ca="1">IF((J130-J131)&lt;=0,0,J130-J131)</f>
-        <v>12932.851599999998</v>
+        <v>312.55206709731391</v>
       </c>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>78</v>
       </c>
       <c r="B133" s="40">
         <f ca="1">-B120</f>
-        <v>-200</v>
+        <v>-280.39524147176076</v>
       </c>
       <c r="C133" s="62"/>
       <c r="F133" s="41"/>
@@ -6474,10 +6497,10 @@
       <c r="J133" s="51"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="B134" s="39">
         <f ca="1">SUM(B132:B133)</f>
-        <v>0</v>
+        <v>919.60475852823924</v>
       </c>
       <c r="C134" s="62" t="s">
         <v>32</v>
@@ -6488,7 +6511,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="B135" s="39"/>
       <c r="C135" s="4"/>
       <c r="H135" s="18"/>
@@ -6497,13 +6520,13 @@
       <c r="K135" s="54"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>72</v>
       </c>
       <c r="B136" s="65">
         <f ca="1">MIN(B130,B134)</f>
-        <v>0</v>
+        <v>123.52308060954137</v>
       </c>
       <c r="C136" s="62" t="s">
         <v>87</v>
@@ -6513,7 +6536,7 @@
       <c r="K136" s="54"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="B137" s="39"/>
       <c r="C137" s="4"/>
       <c r="I137" s="49"/>
@@ -6521,13 +6544,13 @@
       <c r="K137" s="54"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>86</v>
       </c>
       <c r="B138" s="65">
         <f ca="1">B118-B120-B136</f>
-        <v>0</v>
+        <v>796.08167791869789</v>
       </c>
       <c r="C138" s="62" t="s">
         <v>88</v>
@@ -6539,7 +6562,7 @@
       <c r="K138" s="54"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="B139" s="39"/>
       <c r="C139" s="4"/>
       <c r="G139" s="18"/>
@@ -6549,7 +6572,7 @@
       <c r="K139" s="54"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="A140" s="2" t="s">
         <v>12</v>
       </c>
@@ -6560,7 +6583,7 @@
       <c r="K140" s="50"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="B141" s="11"/>
       <c r="C141" t="s">
         <v>13</v>
@@ -6572,7 +6595,7 @@
       <c r="K141" s="50"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="B142" s="39"/>
       <c r="C142" s="4"/>
       <c r="H142" s="48"/>
@@ -6581,13 +6604,13 @@
       <c r="K142" s="49"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="A143" t="s">
         <v>20</v>
       </c>
       <c r="B143" s="39">
         <f ca="1">IF(AND((B5+B104+B18)&gt;=B22,(B5+B104+B18)&lt;=C22),(B5+B104)*D22,IF(AND((B5+B104+B18)&gt;B23,(B5+B104+B18)&lt;=C23),IF((B5+B104+B18-B23)&gt;(B5+B104),(B5+B104)*D23,((B5+B104+B18-B23)*D23)+((B5+B104-(B5+B104+B18-B23))*D22)),IF(AND((B5+B104+B18)&gt;B24,(B5+B104+B18)&lt;=C24),IF((B5+B104+B18-B24)&gt;(B5+B104),(B5+B104)*D24,IF((B5+B104+B18-B23)&gt;(B5+B104),(((B5+B104+B18-B24)*D24)+((B5+B104-(B5+B104+B18-B24))*D23)),((B5+B104+B18-B24)*D24)+((C23-B23)*D23)+((B5+B104-(B5+B104+B18-B23))*D22))),IF(AND((B5+B104+B18)&gt;B25,(B5+B104+B18)&lt;=C25),IF((B5+B104+B18-B25)&gt;(B5+B104),(B5+B104)*D25,IF((B5+B104+B18-B24)&gt;(B5+B104),((B5+B104+B18-B25)*D25)+(((B5+B104-(B5+B104+B18-B25))*D24)),IF((B5+B104+B18-B23)&gt;(B5+B104),(((B5+B104+B18-B25)*D25)+((C24-B24)*D24)+((B5+B104-(B5+B104+B18-B24))*D23)),((B5+B104+B18-B25)*D25)+((C24-B24)*D24)+((C23-B23)*D23)+((B5+B104-(B5+B104+B18-B23))*D22)))),IF((B5+B104+B18)&gt;B26,IF((B5+B104+B18-B26)&gt;(B5+B104),(B5+B104)*D26,IF((B5+B104+B18-B25)&gt;(B5+B104),(((B5+B104+B18-B26)*D26)+((B5+B104-(B5+B104+B18-B26))*D25)),IF((B5+B104+B18-B24)&gt;(B5+B104),(((B5+B104+B18-B26)*D26)+((C25-B25)*D25)+((B5+B104-(B5+B104+B18-B25))*D24)),IF((B5+B104+B18-B23)&gt;(B5+B104),(((B5+B104+B18-B26)*D26)+((C25-B25)*D25)+((C24-B24)*D24)+((B5+B104-(B5+B104+B18-B24))*D23)),((B5+B104+B18-B26)*D26)+((C25-B25)*D25)+((C24-B24)*D24)+((C23-B23)*D23)+((B5+B104-(B5+B104+B18-B23))*D22))))))))))</f>
-        <v>538.36</v>
+        <v>1080.5877483121953</v>
       </c>
       <c r="C143" t="s">
         <v>15</v>
@@ -6599,10 +6622,10 @@
       <c r="K143" s="49"/>
       <c r="L143" s="13"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17">
       <c r="B144" s="39">
-        <f>-IF(B18&gt;=B28,0,IF(B18&lt;B28,IF((B18+B5+B104)&gt;B28,(B28-B18)*D22,((B5+B104)*D22))))</f>
-        <v>0</v>
+        <f ca="1">-IF(B18&gt;=B28,0,IF(B18&lt;B28,IF((B18+B5+B104)&gt;B28,(B28-B18)*D22,((B5+B104)*D22))))</f>
+        <v>-371.09999999999997</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
@@ -6614,7 +6637,7 @@
       <c r="K144" s="50"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17">
       <c r="B145" s="39">
         <f ca="1">-B90</f>
         <v>0</v>
@@ -6629,10 +6652,10 @@
       <c r="K145" s="54"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17">
       <c r="B146" s="39">
         <f ca="1">IF(B120=0,0,-MIN(B120,SUM(B143:B145)))</f>
-        <v>-200</v>
+        <v>-280.39524147176076</v>
       </c>
       <c r="C146" t="s">
         <v>79</v>
@@ -6644,10 +6667,10 @@
       <c r="K146" s="54"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17">
       <c r="B147" s="39">
         <f ca="1">IF(AND((B5+B104+B18)&gt;=B32,(B5+B104+B18)&lt;=C32),(B5+B104)*D32,IF(AND((B5+B104+B18)&gt;B33,(B5+B104+B18)&lt;=C33),IF((B5+B104+B18-B33)&gt;(B5+B104),(B5+B104)*D33,((B5+B104+B18-B33)*D33)+((B5+B104-(B5+B104+B18-B33))*D32)),IF(AND((B5+B104+B18)&gt;B34,(B5+B104+B18)&lt;=C34),IF((B5+B104+B18-B34)&gt;(B5+B104),(B5+B104)*D34,IF((B5+B104+B18-B33)&gt;(B5+B104),(((B5+B104+B18-B34)*D34)+((B5+B104-(B5+B104+B18-B34))*D33)),((B5+B104+B18-B34)*D34)+((C33-B33)*D33)+((B5+B104-(B5+B104+B18-B33))*D32))),IF(AND((B5+B104+B18)&gt;B35,(B5+B104+B18)&lt;=C35),IF((B5+B104+B18-B35)&gt;(B5+B104),(B5+B104)*D35,IF((B5+B104+B18-B34)&gt;(B5+B104),(((B5+B104+B18-B35)*D35)+((B5+B104-(B5+B104+B18-B35))*D34)),IF((B5+B104+B18-B33)&gt;(B5+B104),(((B5+B104+B18-B35)*D35)+((C34-B34)*D34)+((B5+B104-(B5+B104+B18-B34))*D33)),((B5+B104+B18-B35)*D35)+((C34-B34)*D34)+((C33-B33)*D33)+((B5+B104-(B5+B104+B18-B33))*D32)))),IF((B5+B104+B18)&gt;B36,IF((B5+B104+B18-B36)&gt;(B5+B104),(B5+B104)*D36,IF((B5+B104+B18-B35)&gt;(B5+B104),(((B5+B104+B18-B36)*D36)+((B5+B104-(B5+B104+B18-B36))*D35)),IF((B5+B104+B18-B34)&gt;(B5+B104),(((B5+B104+B18-B36)*D36)+((C35-B35)*D35)+((B5+B104-(B5+B104+B18-B35))*D34)),IF((B5+B104+B18-B33)&gt;(B5+B104),(((B5+B104+B18-B36)*D36)+((C35-B35)*D35)+((C34-B34)*D34)+((B5+B104-(B5+B104+B18-B34))*D33)),((B5+B104+B18-B36)*D36)+((C35-B35)*D35)+((C34-B34)*D34)+((C33-B33)*D33)+((B5+B104-(B5+B104+B18-B33))*D32))))))))))</f>
-        <v>294</v>
+        <v>364.51826709731387</v>
       </c>
       <c r="C147" t="s">
         <v>16</v>
@@ -6658,10 +6681,10 @@
       <c r="J147" s="55"/>
       <c r="K147" s="21"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17">
       <c r="B148" s="39">
-        <f>-IF(B18&gt;=B38,0,IF(B18&lt;B38,IF((B18+B5+B104)&gt;B38,(B38-B18)*D32,((B5+B104)*D32))))</f>
-        <v>0</v>
+        <f ca="1">-IF(B18&gt;=B38,0,IF(B18&lt;B38,IF((B18+B5+B104)&gt;B38,(B38-B18)*D32,((B5+B104)*D32))))</f>
+        <v>-51.966200000000001</v>
       </c>
       <c r="C148" t="s">
         <v>36</v>
@@ -6673,7 +6696,7 @@
       <c r="K148" s="54"/>
       <c r="L148" s="13"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17">
       <c r="B149" s="39">
         <f ca="1">-B95</f>
         <v>0</v>
@@ -6687,10 +6710,10 @@
       <c r="J149" s="21"/>
       <c r="K149" s="21"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17">
       <c r="B150" s="39">
         <f ca="1">IF(B136=0,0,-MIN(B136,SUM(B147,B148,B149)))</f>
-        <v>0</v>
+        <v>-123.52308060954137</v>
       </c>
       <c r="C150" t="s">
         <v>80</v>
@@ -6702,10 +6725,10 @@
       <c r="K150" s="21"/>
       <c r="L150" s="13"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17">
       <c r="B151" s="41">
         <f ca="1">-B57</f>
-        <v>0</v>
+        <v>-189.02898648777256</v>
       </c>
       <c r="C151" t="s">
         <v>90</v>
@@ -6719,10 +6742,10 @@
       <c r="L151" s="50"/>
       <c r="M151" s="49"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17">
       <c r="B152" s="40">
         <f ca="1">B76</f>
-        <v>0</v>
+        <v>24.078366441626059</v>
       </c>
       <c r="C152" s="28" t="s">
         <v>100</v>
@@ -6736,13 +6759,13 @@
       <c r="L152" s="50"/>
       <c r="M152" s="49"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17">
       <c r="A153" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B153" s="84">
         <f ca="1">SUM(B143:B152)</f>
-        <v>632.36</v>
+        <v>453.17087328206071</v>
       </c>
       <c r="F153" s="49"/>
       <c r="I153" s="21"/>
@@ -6751,7 +6774,7 @@
       <c r="L153" s="50"/>
       <c r="M153" s="49"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17">
       <c r="E154" s="18"/>
       <c r="F154" s="51"/>
       <c r="K154" s="49"/>
@@ -6759,14 +6782,14 @@
       <c r="M154" s="49"/>
       <c r="Q154" s="15"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17">
       <c r="B155" s="13"/>
       <c r="F155" s="49"/>
       <c r="K155" s="49"/>
       <c r="L155" s="49"/>
       <c r="M155" s="49"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17">
       <c r="A156" s="19" t="s">
         <v>39</v>
       </c>
@@ -6776,84 +6799,84 @@
       <c r="L156" s="49"/>
       <c r="M156" s="49"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17">
       <c r="A157" t="s">
         <v>124</v>
       </c>
       <c r="B157" s="39">
         <f ca="1">SUM(B143:B146)</f>
-        <v>338.36</v>
+        <v>429.09250684043468</v>
       </c>
       <c r="F157" s="49"/>
       <c r="K157" s="49"/>
       <c r="L157" s="49"/>
       <c r="M157" s="49"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17">
       <c r="A158" t="s">
         <v>125</v>
       </c>
       <c r="B158" s="41">
         <f ca="1">SUM(B147:B151)</f>
-        <v>294</v>
+        <v>0</v>
       </c>
       <c r="F158" s="49"/>
       <c r="K158" s="49"/>
       <c r="L158" s="49"/>
       <c r="M158" s="49"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17">
       <c r="A159" t="s">
         <v>126</v>
       </c>
       <c r="B159" s="40">
         <f ca="1">B152</f>
-        <v>0</v>
+        <v>24.078366441626059</v>
       </c>
       <c r="F159" s="49"/>
       <c r="K159" s="49"/>
       <c r="L159" s="49"/>
       <c r="M159" s="49"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17">
       <c r="B160" s="39">
         <f ca="1">SUM(B157:B159)</f>
-        <v>632.36</v>
+        <v>453.17087328206071</v>
       </c>
       <c r="F160" s="49"/>
       <c r="K160" s="49"/>
       <c r="L160" s="49"/>
       <c r="M160" s="49"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:14">
       <c r="B161" s="13"/>
       <c r="F161" s="49"/>
       <c r="K161" s="49"/>
       <c r="L161" s="49"/>
       <c r="M161" s="49"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:14">
       <c r="B162" s="13"/>
       <c r="F162" s="49"/>
       <c r="K162" s="49"/>
       <c r="L162" s="49"/>
       <c r="M162" s="49"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:14">
       <c r="B163" s="13"/>
       <c r="F163" s="49"/>
       <c r="K163" s="49"/>
       <c r="L163" s="49"/>
       <c r="M163" s="49"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:14">
       <c r="B164" s="13"/>
       <c r="F164" s="49"/>
       <c r="K164" s="49"/>
       <c r="L164" s="49"/>
       <c r="M164" s="49"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14">
       <c r="B165" s="15"/>
       <c r="F165" s="49"/>
       <c r="K165" s="51"/>
@@ -6861,19 +6884,19 @@
       <c r="M165" s="51"/>
       <c r="N165" s="18"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14">
       <c r="F166" s="49"/>
       <c r="K166" s="49"/>
       <c r="L166" s="49"/>
       <c r="M166" s="49"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14">
       <c r="F167" s="49"/>
       <c r="K167" s="49"/>
       <c r="L167" s="49"/>
       <c r="M167" s="49"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14">
       <c r="F168" s="49"/>
       <c r="G168" s="49"/>
       <c r="H168" s="48"/>
@@ -6883,15 +6906,15 @@
       <c r="L168" s="49"/>
       <c r="M168" s="49"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14">
       <c r="H169" s="12"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14">
       <c r="H171" s="42"/>
       <c r="M171" s="22"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>$E$1:$E$2</formula1>
     </dataValidation>
@@ -6906,7 +6929,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6914,28 +6942,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -6950,7 +6978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6964,7 +6992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
@@ -6976,7 +7004,7 @@
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="E4" t="s">
         <v>58</v>
       </c>
@@ -6991,12 +7019,12 @@
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="58">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -7012,7 +7040,7 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="28" t="s">
         <v>60</v>
       </c>
@@ -7031,12 +7059,12 @@
       <c r="M6" s="85"/>
       <c r="N6" s="21"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -7050,7 +7078,7 @@
       <c r="M7" s="85"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="21" customFormat="1">
       <c r="A8" s="59"/>
       <c r="B8"/>
       <c r="D8" s="49"/>
@@ -7064,7 +7092,7 @@
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -7080,7 +7108,7 @@
       <c r="M9" s="49"/>
       <c r="N9" s="21"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7127,7 @@
       <c r="M10" s="49"/>
       <c r="N10" s="21"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -7112,7 +7140,7 @@
       <c r="M11" s="49"/>
       <c r="N11" s="21"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="83"/>
@@ -7125,7 +7153,7 @@
       <c r="M12" s="49"/>
       <c r="N12" s="21"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -7138,23 +7166,23 @@
       <c r="M13" s="49"/>
       <c r="N13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -7163,18 +7191,18 @@
       <c r="G16" s="21"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="100" t="s">
+    <row r="17" spans="1:14">
+      <c r="B17" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="100"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -7184,16 +7212,16 @@
       <c r="C18" s="27">
         <v>45282</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="100">
         <v>0.15</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="54"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="101"/>
+      <c r="H18" s="100"/>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -7213,7 +7241,7 @@
       <c r="H19" s="69"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -7233,7 +7261,7 @@
       <c r="H20" s="69"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -7253,7 +7281,7 @@
       <c r="H21" s="69"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -7268,16 +7296,16 @@
       <c r="H22" s="69"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="B23" s="21"/>
-      <c r="C23" s="100"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -7291,7 +7319,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -7300,7 +7328,7 @@
       <c r="G25" s="21"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -7312,24 +7340,24 @@
       <c r="G26" s="21"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="100"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="49"/>
       <c r="J27" s="32"/>
       <c r="K27" s="75"/>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -7350,7 +7378,7 @@
       <c r="J28" s="69"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -7373,7 +7401,7 @@
       <c r="K29" s="55"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -7397,7 +7425,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -7421,7 +7449,7 @@
       <c r="L31" s="13"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15">
       <c r="B32" s="27">
         <f>C31</f>
         <v>106543</v>
@@ -7439,9 +7467,9 @@
       <c r="K32" s="54"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="B33" s="21"/>
-      <c r="C33" s="100"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="21"/>
       <c r="H33" s="43"/>
       <c r="I33" s="49"/>
@@ -7449,7 +7477,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="26"/>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -7464,7 +7492,7 @@
       <c r="K34" s="20"/>
       <c r="L34" s="26"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
@@ -7477,7 +7505,7 @@
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>91</v>
       </c>
@@ -7492,7 +7520,7 @@
       </c>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>94</v>
@@ -7515,7 +7543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>27</v>
@@ -7539,22 +7567,22 @@
       </c>
       <c r="J38" s="12">
         <f>IF(AND($B$14&gt;=F38,$B$14&lt;G38),($B$14-F38)*H38,0)</f>
-        <v>0</v>
+        <v>455.4</v>
       </c>
       <c r="K38" s="55">
         <f>(IF(J38=0,0,I38+J38))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>$B$14</f>
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="C39" s="4">
         <f ca="1">$B$14+$B$5+$B$82</f>
-        <v>141000</v>
+        <v>16203.918406759778</v>
       </c>
       <c r="F39" s="5">
         <f>G38</f>
@@ -7581,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="28" t="s">
         <v>92</v>
       </c>
@@ -7616,15 +7644,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>IF((B39+B40)&lt;=0,0,SUM(B39:B40))</f>
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="C41" s="4">
         <f ca="1">IF((C39+C40)&lt;=0,0,SUM(C39:C40))</f>
-        <v>122000</v>
+        <v>0</v>
       </c>
       <c r="F41" s="5">
         <f>G40</f>
@@ -7651,7 +7679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="3"/>
       <c r="B42" s="71">
         <v>3.5000000000000003E-2</v>
@@ -7673,22 +7701,22 @@
       </c>
       <c r="J42" s="12">
         <f>IF($B$14&gt;=F42,($B$14-F42)*H42,0)</f>
-        <v>4771.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="K42" s="79">
         <f>(IF(J42=0,0,I42+J42))</f>
-        <v>13146.217799999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="3"/>
       <c r="B43" s="4">
         <f>B41*B42</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="C43" s="4">
         <f ca="1">C41*C42</f>
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="46"/>
@@ -7697,10 +7725,10 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12">
         <f>SUM(K38:K42)</f>
-        <v>13146.217799999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7719,10 +7747,10 @@
       </c>
       <c r="K44" s="56">
         <f>IF($B$14&lt;I44,$B$14*J44,I44*J44)</f>
-        <v>507.36619999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>455.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="28" t="s">
         <v>17</v>
       </c>
@@ -7739,18 +7767,18 @@
       <c r="J45" s="20"/>
       <c r="K45" s="13">
         <f>IF((K43-K44)&lt;=0,0,K43-K44)</f>
-        <v>12638.851599999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="3"/>
       <c r="B46" s="72">
         <f>B43</f>
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="C46" s="72">
         <f ca="1">C43</f>
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="46"/>
@@ -7759,17 +7787,17 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B47" s="4">
         <f>IF((B45-B46)&lt;=0,0,B45-B46)</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="C47" s="4">
         <f ca="1">IF((C45-C46)&lt;=0,0,C45-C46)</f>
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="D47" s="4"/>
       <c r="F47" s="13"/>
@@ -7779,7 +7807,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -7792,17 +7820,17 @@
       </c>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>96</v>
       </c>
       <c r="B49" s="4">
         <f>K45</f>
-        <v>12638.851599999998</v>
+        <v>0</v>
       </c>
       <c r="C49" s="4">
         <f ca="1">K59</f>
-        <v>12932.851599999998</v>
+        <v>189.02898135128106</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>98</v>
@@ -7819,7 +7847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="F50">
@@ -7838,14 +7866,14 @@
       </c>
       <c r="J50" s="12">
         <f ca="1">IF(AND(($B$14+$B$5+$B$82)&gt;=F50,($B$14+$B$5+$B$82)&lt;G50),($B$14+$B$5+$B$82-F50)*H50,0)</f>
-        <v>0</v>
+        <v>819.91827138204474</v>
       </c>
       <c r="K50" s="55">
         <f t="shared" ref="K50:K54" ca="1" si="3">(IF(J50=0,0,I50+J50))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>819.91827138204474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="28" t="s">
         <v>97</v>
       </c>
@@ -7855,7 +7883,7 @@
       </c>
       <c r="C51" s="4">
         <f ca="1">MIN(C47,C49)</f>
-        <v>0</v>
+        <v>189.02898135128106</v>
       </c>
       <c r="D51" s="26"/>
       <c r="F51" s="5">
@@ -7883,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7912,13 +7940,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="28" t="s">
         <v>91</v>
       </c>
       <c r="B53" s="37">
         <f ca="1">C51-B51</f>
-        <v>0</v>
+        <v>189.02898135128106</v>
       </c>
       <c r="C53" s="4"/>
       <c r="F53" s="5">
@@ -7946,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -7964,14 +7992,14 @@
       </c>
       <c r="J54" s="12">
         <f ca="1">IF(($B$14+$B$5+$B$82)&gt;=F54,($B$14+$B$5+$B$82-F54)*H54,0)</f>
-        <v>5065.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="K54" s="79">
         <f t="shared" ca="1" si="3"/>
-        <v>13440.217799999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -7982,10 +8010,10 @@
       <c r="J55" s="21"/>
       <c r="K55" s="55">
         <f ca="1">SUM(K50:K54)</f>
-        <v>13440.217799999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>819.91827138204474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -8007,7 +8035,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -8018,10 +8046,10 @@
       <c r="J57" s="21"/>
       <c r="K57" s="13">
         <f ca="1">IF((K55-K56)&lt;=0,0,K55-K56)</f>
-        <v>12932.851599999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>312.55207138204474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="13"/>
@@ -8033,10 +8061,10 @@
       <c r="J58" s="21"/>
       <c r="K58" s="80">
         <f ca="1">MIN(B114,K57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>123.52308827868393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
@@ -8046,10 +8074,10 @@
       <c r="J59" s="21"/>
       <c r="K59" s="12">
         <f ca="1">K57-K58</f>
-        <v>12932.851599999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>189.02898310336082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>94</v>
@@ -8058,7 +8086,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>27</v>
@@ -8067,21 +8095,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="4">
         <f>$B$14</f>
-        <v>139000</v>
+        <v>9000</v>
       </c>
       <c r="C62" s="4">
         <f ca="1">$B$14+$B$5+$B$82</f>
-        <v>141000</v>
+        <v>16203.918406759778</v>
       </c>
       <c r="I62" s="49"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="28" t="s">
         <v>92</v>
       </c>
@@ -8095,21 +8123,21 @@
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="4">
         <f>IF((B62+B63)&lt;=0,0,SUM(B62:B63))</f>
-        <v>124000</v>
+        <v>0</v>
       </c>
       <c r="C64" s="4">
         <f ca="1">IF((C62+C63)&lt;=0,0,SUM(C62:C63))</f>
-        <v>126000</v>
+        <v>1203.918406759778</v>
       </c>
       <c r="I64" s="49"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" s="3"/>
       <c r="B65" s="71">
         <v>0.02</v>
@@ -8121,21 +8149,21 @@
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66" s="3"/>
       <c r="B66" s="4">
         <f>B64*B65</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="C66" s="4">
         <f ca="1">C64*C65</f>
-        <v>2520</v>
+        <v>24.078368135195561</v>
       </c>
       <c r="I66" s="49"/>
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -8143,7 +8171,7 @@
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" s="28" t="s">
         <v>17</v>
       </c>
@@ -8157,37 +8185,37 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" s="3"/>
       <c r="B69" s="72">
         <f>B66</f>
-        <v>2480</v>
+        <v>0</v>
       </c>
       <c r="C69" s="72">
         <f ca="1">C66</f>
-        <v>2520</v>
+        <v>24.078368135195561</v>
       </c>
       <c r="I69" s="49"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B70" s="4">
         <f>IF((B68-B69)&lt;=0,0,B68-B69)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C70" s="4">
         <f ca="1">IF((C68-C69)&lt;=0,0,C68-C69)</f>
-        <v>0</v>
+        <v>50.921631864804439</v>
       </c>
       <c r="I70" s="49"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -8195,20 +8223,20 @@
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B72" s="37">
         <f ca="1">B70-C70</f>
-        <v>0</v>
+        <v>24.078368135195561</v>
       </c>
       <c r="C72" s="4"/>
       <c r="I72" s="49"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="E73" s="13"/>
@@ -8218,7 +8246,7 @@
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="B74" s="39"/>
       <c r="C74" s="4"/>
       <c r="I74" s="49"/>
@@ -8226,7 +8254,7 @@
       <c r="K74" s="21"/>
       <c r="Q74" s="18"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="3" t="s">
         <v>53</v>
       </c>
@@ -8237,7 +8265,7 @@
       <c r="K75" s="21"/>
       <c r="Q75" s="18"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="B76" s="39"/>
       <c r="C76" s="4"/>
       <c r="I76" s="49"/>
@@ -8245,7 +8273,7 @@
       <c r="K76" s="21"/>
       <c r="Q76" s="18"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" s="19" t="s">
         <v>54</v>
       </c>
@@ -8257,13 +8285,13 @@
       <c r="K77" s="21"/>
       <c r="Q77" s="18"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="39">
         <f>$B$5</f>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="C78" s="62" t="s">
         <v>31</v>
@@ -8286,13 +8314,13 @@
       <c r="K78" s="21"/>
       <c r="Q78" s="18"/>
     </row>
-    <row r="79" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="15">
       <c r="A79" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="39">
         <f>IF($B$6="US",-IF(($B$7/$B$5)&gt;15%,$B$7-($B$5*15%),0),0)</f>
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C79" s="62" t="s">
         <v>32</v>
@@ -8316,16 +8344,16 @@
       </c>
       <c r="I79" s="12">
         <f ca="1">IF(AND(($B$14+$B$5+$B$82)&gt;=E79,($B$14+$B$5+$B$82)&lt;F79),($B$14+$B$5+$B$82-E79)*G79,0)</f>
-        <v>0</v>
+        <v>2430.5877610139664</v>
       </c>
       <c r="J79" s="12">
         <f ca="1">(IF(I79=0,0,H79+I79))</f>
-        <v>0</v>
+        <v>2430.5877610139664</v>
       </c>
       <c r="K79" s="21"/>
       <c r="Q79" s="18"/>
     </row>
-    <row r="80" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="15">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -8364,13 +8392,13 @@
       <c r="K80" s="21"/>
       <c r="Q80" s="18"/>
     </row>
-    <row r="81" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="15">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="40">
         <f ca="1">-B116</f>
-        <v>0</v>
+        <v>-796.08164820093452</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" t="s">
@@ -8403,13 +8431,13 @@
       <c r="K81" s="21"/>
       <c r="Q81" s="18"/>
     </row>
-    <row r="82" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" ht="15">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="40">
         <f ca="1">SUM(B80:B81)</f>
-        <v>0</v>
+        <v>-796.08164820093452</v>
       </c>
       <c r="C82" s="62" t="s">
         <v>82</v>
@@ -8435,22 +8463,22 @@
       </c>
       <c r="I82" s="12">
         <f ca="1">IF(AND(($B$14+$B$5+$B$82)&gt;=E82,($B$14+$B$5+$B$82)&lt;F82),($B$14+$B$5+$B$82-E82)*G82,0)</f>
-        <v>177.48</v>
+        <v>0</v>
       </c>
       <c r="J82" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>29206.884999999998</v>
+        <v>0</v>
       </c>
       <c r="K82" s="21"/>
       <c r="Q82" s="18"/>
     </row>
-    <row r="83" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" ht="15">
       <c r="A83" t="s">
         <v>56</v>
       </c>
       <c r="B83" s="39">
         <f ca="1">B78+B79+B82</f>
-        <v>2000</v>
+        <v>6403.9183517990659</v>
       </c>
       <c r="C83" s="62" t="s">
         <v>84</v>
@@ -8478,7 +8506,7 @@
       <c r="K83" s="21"/>
       <c r="Q83" s="18"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="B84" s="39"/>
       <c r="C84" s="4"/>
       <c r="E84" s="13"/>
@@ -8488,18 +8516,18 @@
       <c r="I84" s="49"/>
       <c r="J84" s="12">
         <f ca="1">SUM(J79:J83)</f>
-        <v>29206.884999999998</v>
+        <v>2430.5877610139664</v>
       </c>
       <c r="K84" s="21"/>
       <c r="Q84" s="18"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>6</v>
       </c>
       <c r="B85" s="41">
         <f>$B$5+$B$14</f>
-        <v>141000</v>
+        <v>17000</v>
       </c>
       <c r="C85" s="62" t="s">
         <v>31</v>
@@ -8522,7 +8550,7 @@
       <c r="K85" s="21"/>
       <c r="Q85" s="18"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -8535,18 +8563,18 @@
       <c r="I86" s="49"/>
       <c r="J86" s="13">
         <f ca="1">IF((J84-J85)&lt;=0,0,J84-J85)</f>
-        <v>27485.785</v>
+        <v>709.48776101396652</v>
       </c>
       <c r="K86" s="21"/>
       <c r="Q86" s="18"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>81</v>
       </c>
       <c r="B87" s="40">
         <f ca="1">B81</f>
-        <v>0</v>
+        <v>-796.08164820093452</v>
       </c>
       <c r="C87" s="4"/>
       <c r="G87" s="66"/>
@@ -8555,13 +8583,13 @@
       <c r="K87" s="21"/>
       <c r="Q87" s="18"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>83</v>
       </c>
       <c r="B88" s="40">
         <f ca="1">SUM(B86:B87)</f>
-        <v>0</v>
+        <v>-796.08164820093452</v>
       </c>
       <c r="C88" s="62" t="s">
         <v>32</v>
@@ -8573,13 +8601,13 @@
       <c r="K88" s="21"/>
       <c r="Q88" s="18"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>77</v>
       </c>
       <c r="B89" s="39">
         <f ca="1">B85+B88</f>
-        <v>141000</v>
+        <v>16203.918351799066</v>
       </c>
       <c r="C89" s="62" t="s">
         <v>85</v>
@@ -8589,7 +8617,7 @@
       <c r="K89" s="21"/>
       <c r="Q89" s="18"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="B90" s="39"/>
       <c r="C90" s="4"/>
       <c r="I90" s="49"/>
@@ -8597,13 +8625,13 @@
       <c r="K90" s="21"/>
       <c r="Q90" s="18"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>57</v>
       </c>
       <c r="B91" s="61">
         <f ca="1">B83/B89</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.39520801159110142</v>
       </c>
       <c r="C91" s="4"/>
       <c r="I91" s="49"/>
@@ -8611,7 +8639,7 @@
       <c r="K91" s="21"/>
       <c r="Q91" s="18"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="B92" s="39"/>
       <c r="C92" s="4"/>
       <c r="I92" s="49"/>
@@ -8619,13 +8647,13 @@
       <c r="K92" s="21"/>
       <c r="Q92" s="18"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>55</v>
       </c>
       <c r="B93" s="39">
         <f ca="1">J86</f>
-        <v>27485.785</v>
+        <v>709.48776101396652</v>
       </c>
       <c r="C93" s="4"/>
       <c r="I93" s="49"/>
@@ -8633,7 +8661,7 @@
       <c r="K93" s="21"/>
       <c r="Q93" s="18"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="B94" s="39"/>
       <c r="C94" s="4"/>
       <c r="E94" s="68"/>
@@ -8645,13 +8673,13 @@
       <c r="K94" s="21"/>
       <c r="Q94" s="18"/>
     </row>
-    <row r="95" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" ht="15">
       <c r="A95" t="s">
         <v>67</v>
       </c>
       <c r="B95" s="39">
         <f ca="1">B93*B91</f>
-        <v>389.86929078014185</v>
+        <v>280.39524727855229</v>
       </c>
       <c r="C95" s="62" t="s">
         <v>31</v>
@@ -8664,13 +8692,13 @@
       <c r="K95" s="21"/>
       <c r="Q95" s="18"/>
     </row>
-    <row r="96" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" ht="15">
       <c r="A96" t="s">
         <v>68</v>
       </c>
       <c r="B96" s="39">
         <f>MIN($B$7,$B$5*15%)</f>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="C96" s="62" t="s">
         <v>32</v>
@@ -8683,7 +8711,7 @@
       <c r="K96" s="21"/>
       <c r="Q96" s="18"/>
     </row>
-    <row r="97" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="15">
       <c r="B97" s="39"/>
       <c r="C97" s="4"/>
       <c r="E97" s="5"/>
@@ -8694,13 +8722,13 @@
       <c r="K97" s="21"/>
       <c r="Q97" s="18"/>
     </row>
-    <row r="98" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" ht="15">
       <c r="A98" t="s">
         <v>69</v>
       </c>
       <c r="B98" s="65">
         <f ca="1">MIN(B95,B96)</f>
-        <v>200</v>
+        <v>280.39524727855229</v>
       </c>
       <c r="C98" s="62" t="s">
         <v>87</v>
@@ -8713,7 +8741,7 @@
       <c r="K98" s="21"/>
       <c r="Q98" s="18"/>
     </row>
-    <row r="99" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" ht="15">
       <c r="B99" s="65"/>
       <c r="C99" s="4"/>
       <c r="E99" s="5"/>
@@ -8725,7 +8753,7 @@
       <c r="K99" s="21"/>
       <c r="Q99" s="18"/>
     </row>
-    <row r="100" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" ht="15">
       <c r="B100" s="65"/>
       <c r="C100" s="4"/>
       <c r="E100" s="13"/>
@@ -8737,7 +8765,7 @@
       <c r="K100" s="21"/>
       <c r="Q100" s="18"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="A101" s="19" t="s">
         <v>70</v>
       </c>
@@ -8750,13 +8778,13 @@
       <c r="L101" s="19"/>
       <c r="Q101" s="18"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>56</v>
       </c>
       <c r="B102" s="39">
         <f ca="1">B83</f>
-        <v>2000</v>
+        <v>6403.9183517990659</v>
       </c>
       <c r="C102" s="4"/>
       <c r="D102" s="19" t="s">
@@ -8777,13 +8805,13 @@
       <c r="K102" s="55"/>
       <c r="Q102" s="18"/>
     </row>
-    <row r="103" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" ht="15">
       <c r="A103" t="s">
         <v>23</v>
       </c>
       <c r="B103" s="41">
         <f ca="1">B89</f>
-        <v>141000</v>
+        <v>16203.918351799066</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" t="s">
@@ -8805,22 +8833,22 @@
       </c>
       <c r="I103" s="48">
         <f ca="1">IF(AND(($B$14+$B$5+$B$82)&gt;=E103,($B$14+$B$5+$B$82)&lt;F103),($B$14+$B$5+$B$82-E103)*G103,0)</f>
-        <v>0</v>
+        <v>819.91826860103276</v>
       </c>
       <c r="J103" s="12">
         <f ca="1">(IF(I103=0,0,H103+I103))</f>
-        <v>0</v>
+        <v>819.91826860103276</v>
       </c>
       <c r="K103" s="21"/>
       <c r="Q103" s="18"/>
     </row>
-    <row r="104" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" ht="15">
       <c r="A104" t="s">
         <v>57</v>
       </c>
       <c r="B104" s="61">
         <f ca="1">B102/B103</f>
-        <v>1.4184397163120567E-2</v>
+        <v>0.39520801159110142</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" t="s">
@@ -8853,7 +8881,7 @@
       <c r="K104" s="21"/>
       <c r="Q104" s="18"/>
     </row>
-    <row r="105" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" ht="15">
       <c r="B105" s="39"/>
       <c r="C105" s="4"/>
       <c r="D105" t="s">
@@ -8886,13 +8914,13 @@
       <c r="K105" s="21"/>
       <c r="Q105" s="18"/>
     </row>
-    <row r="106" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" ht="15">
       <c r="A106" t="s">
         <v>71</v>
       </c>
       <c r="B106" s="39">
         <f ca="1">J110</f>
-        <v>12932.851599999998</v>
+        <v>312.55207138204474</v>
       </c>
       <c r="C106" s="4"/>
       <c r="D106" t="s">
@@ -8925,7 +8953,7 @@
       <c r="K106" s="21"/>
       <c r="Q106" s="18"/>
     </row>
-    <row r="107" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" ht="15">
       <c r="B107" s="39"/>
       <c r="C107" s="4"/>
       <c r="E107" s="5">
@@ -8942,22 +8970,22 @@
       </c>
       <c r="I107" s="48">
         <f ca="1">IF(($B$14+$B$5+$B$82)&gt;=E107,($B$14+$B$5+$B$82-E107)*G107,0)</f>
-        <v>5065.1790000000001</v>
+        <v>0</v>
       </c>
       <c r="J107" s="56">
         <f t="shared" ca="1" si="8"/>
-        <v>13440.217799999999</v>
+        <v>0</v>
       </c>
       <c r="K107" s="21"/>
       <c r="Q107" s="18"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>67</v>
       </c>
       <c r="B108" s="39">
         <f ca="1">B106*B104</f>
-        <v>183.44470354609925</v>
+        <v>123.5230826495779</v>
       </c>
       <c r="C108" s="62" t="s">
         <v>31</v>
@@ -8969,12 +8997,12 @@
       <c r="I108" s="49"/>
       <c r="J108" s="55">
         <f ca="1">SUM(J103:J107)</f>
-        <v>13440.217799999999</v>
+        <v>819.91826860103276</v>
       </c>
       <c r="K108" s="21"/>
       <c r="Q108" s="18"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="B109" s="39"/>
       <c r="C109" s="62"/>
       <c r="E109" s="13"/>
@@ -8997,13 +9025,13 @@
       <c r="K109" s="21"/>
       <c r="Q109" s="18"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>68</v>
       </c>
       <c r="B110" s="39">
         <f>B96</f>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="21"/>
@@ -9012,17 +9040,17 @@
       <c r="I110" s="49"/>
       <c r="J110" s="13">
         <f ca="1">IF((J108-J109)&lt;=0,0,J108-J109)</f>
-        <v>12932.851599999998</v>
+        <v>312.55206860103277</v>
       </c>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>78</v>
       </c>
       <c r="B111" s="40">
         <f ca="1">-B98</f>
-        <v>-200</v>
+        <v>-280.39524727855229</v>
       </c>
       <c r="C111" s="62"/>
       <c r="F111" s="41"/>
@@ -9032,10 +9060,10 @@
       <c r="J111" s="51"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="B112" s="39">
         <f ca="1">SUM(B110:B111)</f>
-        <v>0</v>
+        <v>919.60475272144777</v>
       </c>
       <c r="C112" s="62" t="s">
         <v>32</v>
@@ -9046,7 +9074,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="B113" s="39"/>
       <c r="C113" s="4"/>
       <c r="H113" s="18"/>
@@ -9055,13 +9083,13 @@
       <c r="K113" s="54"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
         <v>72</v>
       </c>
       <c r="B114" s="65">
         <f ca="1">MIN(B108,B112)</f>
-        <v>0</v>
+        <v>123.5230826495779</v>
       </c>
       <c r="C114" s="62" t="s">
         <v>87</v>
@@ -9071,7 +9099,7 @@
       <c r="K114" s="54"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="B115" s="39"/>
       <c r="C115" s="4"/>
       <c r="I115" s="49"/>
@@ -9079,13 +9107,13 @@
       <c r="K115" s="54"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
         <v>86</v>
       </c>
       <c r="B116" s="65">
         <f ca="1">B96-B98-B114</f>
-        <v>0</v>
+        <v>796.08167007186989</v>
       </c>
       <c r="C116" s="62" t="s">
         <v>88</v>
@@ -9097,7 +9125,7 @@
       <c r="K116" s="54"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="B117" s="39"/>
       <c r="C117" s="4"/>
       <c r="G117" s="18"/>
@@ -9107,7 +9135,7 @@
       <c r="K117" s="54"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118" s="2" t="s">
         <v>12</v>
       </c>
@@ -9118,7 +9146,7 @@
       <c r="K118" s="50"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="B119" s="11"/>
       <c r="C119" t="s">
         <v>13</v>
@@ -9130,7 +9158,7 @@
       <c r="K119" s="50"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="B120" s="39"/>
       <c r="C120" s="4"/>
       <c r="H120" s="48"/>
@@ -9139,13 +9167,13 @@
       <c r="K120" s="49"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="39">
         <f ca="1">IF(AND((B5+B82+B14)&gt;=B18,(B5+B82+B14)&lt;=C18),(B5+B82)*D18,IF(AND((B5+B82+B14)&gt;B19,(B5+B82+B14)&lt;=C19),IF((B5+B82+B14-B19)&gt;(B5+B82),(B5+B82)*D19,((B5+B82+B14-B19)*D19)+((B5+B82-(B5+B82+B14-B19))*D18)),IF(AND((B5+B82+B14)&gt;B20,(B5+B82+B14)&lt;=C20),IF((B5+B82+B14-B20)&gt;(B5+B82),(B5+B82)*D20,IF((B5+B82+B14-B19)&gt;(B5+B82),(((B5+B82+B14-B20)*D20)+((B5+B82-(B5+B82+B14-B20))*D19)),((B5+B82+B14-B20)*D20)+((C19-B19)*D19)+((B5+B82-(B5+B82+B14-B19))*D18))),IF(AND((B5+B82+B14)&gt;B21,(B5+B82+B14)&lt;=C21),IF((B5+B82+B14-B21)&gt;(B5+B82),(B5+B82)*D21,IF((B5+B82+B14-B20)&gt;(B5+B82),((B5+B82+B14-B21)*D21)+(((B5+B82-(B5+B82+B14-B21))*D20)),IF((B5+B82+B14-B19)&gt;(B5+B82),(((B5+B82+B14-B21)*D21)+((C20-B20)*D20)+((B5+B82-(B5+B82+B14-B20))*D19)),((B5+B82+B14-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B5+B82-(B5+B82+B14-B19))*D18)))),IF((B5+B82+B14)&gt;B22,IF((B5+B82+B14-B22)&gt;(B5+B82),(B5+B82)*D22,IF((B5+B82+B14-B21)&gt;(B5+B82),(((B5+B82+B14-B22)*D22)+((B5+B82-(B5+B82+B14-B22))*D21)),IF((B5+B82+B14-B20)&gt;(B5+B82),(((B5+B82+B14-B22)*D22)+((C21-B21)*D21)+((B5+B82-(B5+B82+B14-B21))*D20)),IF((B5+B82+B14-B19)&gt;(B5+B82),(((B5+B82+B14-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((B5+B82-(B5+B82+B14-B20))*D19)),((B5+B82+B14-B22)*D22)+((C21-B21)*D21)+((C20-B20)*D20)+((C19-B19)*D19)+((B5+B82-(B5+B82+B14-B19))*D18))))))))))</f>
-        <v>538.36</v>
+        <v>1080.5877527698599</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -9157,10 +9185,10 @@
       <c r="K121" s="49"/>
       <c r="L121" s="13"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="B122" s="39">
-        <f>-IF(B14&gt;=B24,0,IF(B14&lt;B24,IF((B14+B5+B82)&gt;B24,(B24-B14)*D18,((B5+B82)*D18))))</f>
-        <v>0</v>
+        <f ca="1">-IF(B14&gt;=B24,0,IF(B14&lt;B24,IF((B14+B5+B82)&gt;B24,(B24-B14)*D18,((B5+B82)*D18))))</f>
+        <v>-371.09999999999997</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
@@ -9172,10 +9200,10 @@
       <c r="K122" s="50"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="B123" s="39">
         <f ca="1">IF(B98=0,0,-MIN(B98,SUM(B121:B122)))</f>
-        <v>-200</v>
+        <v>-280.39524727855229</v>
       </c>
       <c r="C123" t="s">
         <v>79</v>
@@ -9187,10 +9215,10 @@
       <c r="K123" s="54"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="B124" s="39">
         <f ca="1">IF(AND((B5+B82+B14)&gt;=B28,(B5+B82+B14)&lt;=C28),(B5+B82)*D28,IF(AND((B5+B82+B14)&gt;B29,(B5+B82+B14)&lt;=C29),IF((B5+B82+B14-B29)&gt;(B5+B82),(B5+B82)*D29,((B5+B82+B14-B29)*D29)+((B5+B82-(B5+B82+B14-B29))*D28)),IF(AND((B5+B82+B14)&gt;B30,(B5+B82+B14)&lt;=C30),IF((B5+B82+B14-B30)&gt;(B5+B82),(B5+B82)*D30,IF((B5+B82+B14-B29)&gt;(B5+B82),(((B5+B82+B14-B30)*D30)+((B5+B82-(B5+B82+B14-B30))*D29)),((B5+B82+B14-B30)*D30)+((C29-B29)*D29)+((B5+B82-(B5+B82+B14-B29))*D28))),IF(AND((B5+B82+B14)&gt;B31,(B5+B82+B14)&lt;=C31),IF((B5+B82+B14-B31)&gt;(B5+B82),(B5+B82)*D31,IF((B5+B82+B14-B30)&gt;(B5+B82),(((B5+B82+B14-B31)*D31)+((B5+B82-(B5+B82+B14-B31))*D30)),IF((B5+B82+B14-B29)&gt;(B5+B82),(((B5+B82+B14-B31)*D31)+((C30-B30)*D30)+((B5+B82-(B5+B82+B14-B30))*D29)),((B5+B82+B14-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B5+B82-(B5+B82+B14-B29))*D28)))),IF((B5+B82+B14)&gt;B32,IF((B5+B82+B14-B32)&gt;(B5+B82),(B5+B82)*D32,IF((B5+B82+B14-B31)&gt;(B5+B82),(((B5+B82+B14-B32)*D32)+((B5+B82-(B5+B82+B14-B32))*D31)),IF((B5+B82+B14-B30)&gt;(B5+B82),(((B5+B82+B14-B32)*D32)+((C31-B31)*D31)+((B5+B82-(B5+B82+B14-B31))*D30)),IF((B5+B82+B14-B29)&gt;(B5+B82),(((B5+B82+B14-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((B5+B82-(B5+B82+B14-B30))*D29)),((B5+B82+B14-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B5+B82-(B5+B82+B14-B29))*D28))))))))))</f>
-        <v>294</v>
+        <v>364.51826860103273</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -9201,10 +9229,10 @@
       <c r="J124" s="55"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="B125" s="39">
-        <f>-IF(B14&gt;=B34,0,IF(B14&lt;B34,IF((B14+B5+B82)&gt;B34,(B34-B14)*D28,((B5+B82)*D28))))</f>
-        <v>0</v>
+        <f ca="1">-IF(B14&gt;=B34,0,IF(B14&lt;B34,IF((B14+B5+B82)&gt;B34,(B34-B14)*D28,((B5+B82)*D28))))</f>
+        <v>-51.966200000000001</v>
       </c>
       <c r="C125" t="s">
         <v>36</v>
@@ -9216,10 +9244,10 @@
       <c r="K125" s="54"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="B126" s="39">
         <f ca="1">IF(B114=0,0,-MIN(B114,SUM(B124,B125)))</f>
-        <v>0</v>
+        <v>-123.5230826495779</v>
       </c>
       <c r="C126" t="s">
         <v>80</v>
@@ -9231,10 +9259,10 @@
       <c r="K126" s="21"/>
       <c r="L126" s="13"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="B127" s="41">
         <f ca="1">-B53</f>
-        <v>0</v>
+        <v>-189.02898135128106</v>
       </c>
       <c r="C127" t="s">
         <v>90</v>
@@ -9248,10 +9276,10 @@
       <c r="L127" s="50"/>
       <c r="M127" s="49"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="B128" s="40">
         <f ca="1">B72</f>
-        <v>0</v>
+        <v>24.078368135195561</v>
       </c>
       <c r="C128" s="28" t="s">
         <v>100</v>
@@ -9265,13 +9293,13 @@
       <c r="L128" s="50"/>
       <c r="M128" s="49"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17">
       <c r="A129" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B129" s="84">
         <f ca="1">SUM(B121:B128)</f>
-        <v>632.36</v>
+        <v>453.17087822667708</v>
       </c>
       <c r="F129" s="49"/>
       <c r="I129" s="21"/>
@@ -9280,7 +9308,7 @@
       <c r="L129" s="50"/>
       <c r="M129" s="49"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="E130" s="18"/>
       <c r="F130" s="51"/>
       <c r="K130" s="49"/>
@@ -9288,14 +9316,14 @@
       <c r="M130" s="49"/>
       <c r="Q130" s="15"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="B131" s="13"/>
       <c r="F131" s="49"/>
       <c r="K131" s="49"/>
       <c r="L131" s="49"/>
       <c r="M131" s="49"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" s="19" t="s">
         <v>39</v>
       </c>
@@ -9305,77 +9333,77 @@
       <c r="L132" s="49"/>
       <c r="M132" s="49"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>124</v>
       </c>
       <c r="B133" s="39">
         <f ca="1">SUM(B119:B122)</f>
-        <v>538.36</v>
+        <v>709.48775276985998</v>
       </c>
       <c r="F133" s="49"/>
       <c r="K133" s="49"/>
       <c r="L133" s="49"/>
       <c r="M133" s="49"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>125</v>
       </c>
       <c r="B134" s="41">
         <f ca="1">SUM(B123:B127)</f>
-        <v>94</v>
+        <v>-280.39524267837851</v>
       </c>
       <c r="F134" s="49"/>
       <c r="K134" s="49"/>
       <c r="L134" s="49"/>
       <c r="M134" s="49"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>126</v>
       </c>
       <c r="B135" s="40">
         <f ca="1">B128</f>
-        <v>0</v>
+        <v>24.078368135195561</v>
       </c>
       <c r="F135" s="49"/>
       <c r="K135" s="49"/>
       <c r="L135" s="49"/>
       <c r="M135" s="49"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="B136" s="39">
         <f ca="1">SUM(B133:B135)</f>
-        <v>632.36</v>
+        <v>453.17087822667702</v>
       </c>
       <c r="F136" s="49"/>
       <c r="K136" s="49"/>
       <c r="L136" s="49"/>
       <c r="M136" s="49"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="B137" s="13"/>
       <c r="F137" s="49"/>
       <c r="K137" s="49"/>
       <c r="L137" s="49"/>
       <c r="M137" s="49"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="B138" s="13"/>
       <c r="F138" s="49"/>
       <c r="K138" s="49"/>
       <c r="L138" s="49"/>
       <c r="M138" s="49"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="B139" s="13"/>
       <c r="F139" s="49"/>
       <c r="K139" s="49"/>
       <c r="L139" s="49"/>
       <c r="M139" s="49"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="B140" s="15"/>
       <c r="F140" s="49"/>
       <c r="K140" s="51"/>
@@ -9383,19 +9411,19 @@
       <c r="M140" s="51"/>
       <c r="N140" s="18"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="F141" s="49"/>
       <c r="K141" s="49"/>
       <c r="L141" s="49"/>
       <c r="M141" s="49"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="F142" s="49"/>
       <c r="K142" s="49"/>
       <c r="L142" s="49"/>
       <c r="M142" s="49"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="F143" s="49"/>
       <c r="G143" s="49"/>
       <c r="H143" s="48"/>
@@ -9405,15 +9433,15 @@
       <c r="L143" s="49"/>
       <c r="M143" s="49"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17">
       <c r="H144" s="12"/>
     </row>
-    <row r="146" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:13">
       <c r="H146" s="42"/>
       <c r="M146" s="22"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
       <formula1>$H$1:$H$14</formula1>
     </dataValidation>
@@ -9422,7 +9450,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9430,28 +9463,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>0</v>
@@ -9463,7 +9496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -9480,7 +9513,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>108</v>
       </c>
@@ -9501,7 +9534,7 @@
       <c r="R3" s="35"/>
       <c r="S3" s="35"/>
     </row>
-    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.5" customHeight="1">
       <c r="A4" t="s">
         <v>120</v>
       </c>
@@ -9511,56 +9544,56 @@
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
       <c r="H4" s="90"/>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" s="4"/>
       <c r="E5" s="90"/>
       <c r="F5" s="90"/>
       <c r="G5" s="90"/>
       <c r="H5" s="90"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="E6" s="90"/>
       <c r="F6" s="90"/>
       <c r="G6" s="90"/>
       <c r="H6" s="90"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -9568,19 +9601,19 @@
       <c r="F7" s="90"/>
       <c r="G7" s="90"/>
       <c r="H7" s="90"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="99"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="105"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -9591,36 +9624,36 @@
       <c r="F8" s="90"/>
       <c r="G8" s="90"/>
       <c r="H8" s="90"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="E10" s="21"/>
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
@@ -9637,7 +9670,7 @@
       <c r="R10" s="91"/>
       <c r="S10" s="91"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -9656,108 +9689,108 @@
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="12" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14.5" customHeight="1">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>72000</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="105" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="105"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="105"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="105"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="105"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="100" t="s">
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="105"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="100"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="105"/>
+    </row>
+    <row r="18" spans="1:19" ht="15">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -9767,26 +9800,26 @@
       <c r="C18" s="27">
         <v>45282</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="100">
         <v>0.15</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="54"/>
       <c r="G18" s="27"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H18" s="100"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+    </row>
+    <row r="19" spans="1:19" ht="15">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -9804,19 +9837,19 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+    </row>
+    <row r="20" spans="1:19" ht="15">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -9834,19 +9867,19 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="105"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+    </row>
+    <row r="21" spans="1:19" ht="15">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9864,19 +9897,19 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="99"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="105"/>
+      <c r="R21" s="105"/>
+      <c r="S21" s="105"/>
+    </row>
+    <row r="22" spans="1:19" ht="15">
       <c r="B22" s="27">
         <f>C21</f>
         <v>200000</v>
@@ -9889,39 +9922,39 @@
       <c r="F22" s="27"/>
       <c r="G22" s="21"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="105"/>
+      <c r="S22" s="105"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="B23" s="21"/>
-      <c r="C23" s="100"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-    </row>
-    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+    </row>
+    <row r="24" spans="1:19" ht="15">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -9935,7 +9968,7 @@
       <c r="G24" s="54"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -9945,7 +9978,7 @@
       <c r="H25" s="12"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -9957,24 +9990,24 @@
       <c r="G26" s="21"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="100"/>
+      <c r="F27" s="99"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
       <c r="I27" s="25"/>
       <c r="J27" s="10"/>
       <c r="K27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -9994,7 +10027,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -10017,7 +10050,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -10041,7 +10074,7 @@
       <c r="L30" s="13"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -10065,7 +10098,7 @@
       <c r="L31" s="13"/>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15">
       <c r="B32" s="27">
         <f>C31</f>
         <v>106543</v>
@@ -10083,9 +10116,9 @@
       <c r="K32" s="4"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="B33" s="21"/>
-      <c r="C33" s="100"/>
+      <c r="C33" s="99"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
@@ -10096,7 +10129,7 @@
       <c r="K33" s="16"/>
       <c r="L33" s="26"/>
     </row>
-    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -10114,7 +10147,7 @@
       <c r="K34" s="16"/>
       <c r="L34" s="26"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s">
@@ -10124,7 +10157,7 @@
       <c r="F35" s="46"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
         <v>91</v>
       </c>
@@ -10138,7 +10171,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>94</v>
@@ -10161,7 +10194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15">
       <c r="A38" s="3"/>
       <c r="B38" t="s">
         <v>27</v>
@@ -10192,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="4">
         <f>$B$12</f>
@@ -10227,7 +10260,7 @@
         <v>4535.2559999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15">
       <c r="A40" s="28" t="s">
         <v>92</v>
       </c>
@@ -10262,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="4">
         <f>IF((B39+B40)&lt;=0,0,SUM(B39:B40))</f>
@@ -10297,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15">
       <c r="A42" s="3"/>
       <c r="B42" s="71">
         <v>3.5000000000000003E-2</v>
@@ -10326,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="3"/>
       <c r="B43" s="4">
         <f>B41*B42</f>
@@ -10346,7 +10379,7 @@
         <v>4535.2559999999994</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10368,7 +10401,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="28" t="s">
         <v>17</v>
       </c>
@@ -10388,7 +10421,7 @@
         <v>4027.8897999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12">
       <c r="A46" s="3"/>
       <c r="B46" s="72">
         <f>B43</f>
@@ -10405,7 +10438,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="28" t="s">
         <v>99</v>
       </c>
@@ -10425,7 +10458,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10437,7 +10470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -10464,7 +10497,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="F50">
@@ -10490,7 +10523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15">
       <c r="A51" s="28" t="s">
         <v>97</v>
       </c>
@@ -10528,7 +10561,7 @@
         <v>4610.0499500000005</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10557,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15">
       <c r="A53" s="28" t="s">
         <v>91</v>
       </c>
@@ -10591,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -10616,7 +10649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -10629,7 +10662,7 @@
         <v>4610.0499500000005</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -10651,7 +10684,7 @@
         <v>507.36619999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10664,19 +10697,19 @@
         <v>4102.6837500000001</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>94</v>
@@ -10685,7 +10718,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="3"/>
       <c r="B61" t="s">
         <v>27</v>
@@ -10694,7 +10727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="3"/>
       <c r="B62" s="4">
         <f>$B$12</f>
@@ -10705,7 +10738,7 @@
         <v>72971.350000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="28" t="s">
         <v>92</v>
       </c>
@@ -10716,7 +10749,7 @@
         <v>-15000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="3"/>
       <c r="B64" s="4">
         <f>IF((B62+B63)&lt;=0,0,SUM(B62:B63))</f>
@@ -10727,7 +10760,7 @@
         <v>57971.350000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3">
       <c r="A65" s="3"/>
       <c r="B65" s="71">
         <v>0.02</v>
@@ -10736,7 +10769,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3">
       <c r="A66" s="3"/>
       <c r="B66" s="4">
         <f>B64*B65</f>
@@ -10747,12 +10780,12 @@
         <v>1159.4270000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3">
       <c r="A68" s="28" t="s">
         <v>17</v>
       </c>
@@ -10763,7 +10796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3">
       <c r="A69" s="3"/>
       <c r="B69" s="72">
         <f>B66</f>
@@ -10774,7 +10807,7 @@
         <v>1159.4270000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3">
       <c r="A70" s="28" t="s">
         <v>99</v>
       </c>
@@ -10787,12 +10820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3">
       <c r="A72" s="28" t="s">
         <v>100</v>
       </c>
@@ -10802,24 +10835,24 @@
       </c>
       <c r="C72" s="4"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3">
       <c r="A76" s="28" t="s">
         <v>115</v>
       </c>
@@ -10828,7 +10861,7 @@
       </c>
       <c r="C76" s="4"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3">
       <c r="A77" s="28" t="s">
         <v>116</v>
       </c>
@@ -10837,12 +10870,12 @@
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
     </row>
-    <row r="79" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="28">
       <c r="A79" s="93" t="s">
         <v>117</v>
       </c>
@@ -10852,7 +10885,7 @@
       </c>
       <c r="C79" s="4"/>
     </row>
-    <row r="80" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="28">
       <c r="A80" s="93" t="s">
         <v>118</v>
       </c>
@@ -10862,7 +10895,7 @@
       </c>
       <c r="C80" s="4"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17">
       <c r="A81" s="28" t="s">
         <v>119</v>
       </c>
@@ -10872,17 +10905,17 @@
       </c>
       <c r="C81" s="4"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -10892,7 +10925,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="16"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="B85" s="11"/>
       <c r="C85" t="s">
         <v>13</v>
@@ -10902,14 +10935,14 @@
       <c r="K85" s="4"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="H86" s="38"/>
       <c r="I86" s="18"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -10924,7 +10957,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="B88" s="39">
         <f>-IF(B12&gt;=B24,0,IF(B12&lt;B24,IF((B12+B4-B81)&gt;B24,(B24-B12)*D18,(B4-B81)*D18)))</f>
         <v>0</v>
@@ -10936,7 +10969,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="B89" s="12">
         <f>IF(AND((B4-B81+B12)&gt;=B28,(B4-B81+B12)&lt;=C28),(B4-B81)*D28,IF(AND((B4-B81+B12)&gt;B29,(B4-B81+B12)&lt;=C29),IF((B4-B81+B12-B29)&gt;(B4-B81),(B4-B81)*D29,((B4-B81+B12-B29)*D29)+((B4-B81-(B4-B81+B12-B29))*D28)),IF(AND((B4-B81+B12)&gt;B30,(B4-B81+B12)&lt;=C30),IF((B4-B81+B12-B30)&gt;(B4-B81),(B4-B81)*D30,IF((B4-B81+B12-B29)&gt;(B4-B81),(((B4-B81+B12-B30)*D30)+((B4-B81-(B4-B81+B12-B30))*D29)),((B4-B81+B12-B30)*D30)+((C29-B29)*D29)+((B4-B81-(B4-B81+B12-B29))*D28))),IF(AND((B4-B81+B12)&gt;B31,(B4-B81+B12)&lt;=C31),IF((B4-B81+B12-B31)&gt;(B4-B81),(B4-B81)*D31,IF((B4-B81+B12-B30)&gt;(B4-B81),(((B4-B81+B12-B31)*D31)+((B4-B81-(B4-B81+B12-B31))*D30)),IF((B4-B81+B12-B29)&gt;(B4-B81),(((B4-B81+B12-B31)*D31)+((C30-B30)*D30)+((B4-B81-(B4-B81+B12-B30))*D29)),((B4-B81+B12-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B4-B81-(B4-B81+B12-B29))*D28)))),IF((B4-B81+B12)&gt;B32,IF((B4-B81+B12-B32)&gt;(B4-B81),(B4-B81)*D32,IF((B4-B81+B12-B31)&gt;(B4-B81),(((B4-B81+B12-B32)*D32)+((B4-B81-(B4-B81+B12-B32))*D31)),IF((B4-B81+B12-B30)&gt;(B4-B81),(((B4-B81+B12-B32)*D32)+((C31-B31)*D31)+((B4-B81-(B4-B81+B12-B31))*D30)),IF((B4-B81+B12-B29)&gt;(B4-B81),(((B4-B81+B12-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((B4-B81-(B4-B81+B12-B30))*D29)),((B4-B81+B12-B32)*D32)+((C31-B31)*D31)+((C30-B30)*D30)+((C29-B29)*D29)+((B4-B81-(B4-B81+B12-B29))*D28))))))))))</f>
         <v>74.793949999999995</v>
@@ -10945,7 +10978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="B90" s="39">
         <f>-IF(B12&gt;=B34,0,IF(B12&lt;B34,IF((B12+B4-B81)&gt;B34,(B34-B12)*D28,(B4-B81)*D28)))</f>
         <v>0</v>
@@ -10954,7 +10987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="B91" s="41">
         <f>-B53</f>
         <v>0</v>
@@ -10973,7 +11006,7 @@
       <c r="L91" s="50"/>
       <c r="M91" s="49"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="B92" s="41">
         <f>B72</f>
         <v>0</v>
@@ -10992,7 +11025,7 @@
       <c r="L92" s="50"/>
       <c r="M92" s="49"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="B93" s="94">
         <f>B81</f>
         <v>28.65</v>
@@ -11011,7 +11044,7 @@
       <c r="L93" s="50"/>
       <c r="M93" s="49"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="A94" s="10" t="s">
         <v>22</v>
       </c>
@@ -11027,7 +11060,7 @@
       <c r="L94" s="50"/>
       <c r="M94" s="49"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="E95" s="18"/>
       <c r="F95" s="51"/>
       <c r="G95" s="49"/>
@@ -11039,7 +11072,7 @@
       <c r="M95" s="49"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="B96" s="13"/>
       <c r="F96" s="49"/>
       <c r="G96" s="49"/>
@@ -11050,7 +11083,7 @@
       <c r="L96" s="49"/>
       <c r="M96" s="49"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97" s="19" t="s">
         <v>39</v>
       </c>
@@ -11064,7 +11097,7 @@
       <c r="L97" s="49"/>
       <c r="M97" s="49"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -11081,7 +11114,7 @@
       <c r="L98" s="49"/>
       <c r="M98" s="49"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -11098,7 +11131,7 @@
       <c r="L99" s="49"/>
       <c r="M99" s="49"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -11115,7 +11148,7 @@
       <c r="L100" s="49"/>
       <c r="M100" s="49"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101" s="97" t="s">
         <v>114</v>
       </c>
@@ -11132,7 +11165,7 @@
       <c r="L101" s="49"/>
       <c r="M101" s="49"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="B102" s="13">
         <f>SUM(B98:B101)</f>
         <v>302.57069999999999</v>
@@ -11146,7 +11179,7 @@
       <c r="L102" s="49"/>
       <c r="M102" s="49"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="B103" s="13"/>
       <c r="F103" s="49"/>
       <c r="G103" s="49"/>
@@ -11157,7 +11190,7 @@
       <c r="L103" s="49"/>
       <c r="M103" s="49"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="B104" s="13"/>
       <c r="F104" s="49"/>
       <c r="G104" s="49"/>
@@ -11168,7 +11201,7 @@
       <c r="L104" s="49"/>
       <c r="M104" s="49"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="B105" s="13"/>
       <c r="F105" s="49"/>
       <c r="G105" s="49"/>
@@ -11179,7 +11212,7 @@
       <c r="L105" s="49"/>
       <c r="M105" s="49"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="B106" s="13"/>
       <c r="F106" s="49"/>
       <c r="G106" s="49"/>
@@ -11190,7 +11223,7 @@
       <c r="L106" s="49"/>
       <c r="M106" s="49"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="B107" s="15"/>
       <c r="F107" s="49"/>
       <c r="G107" s="49"/>
@@ -11201,7 +11234,7 @@
       <c r="L107" s="49"/>
       <c r="M107" s="49"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="F108" s="49"/>
       <c r="G108" s="49"/>
       <c r="H108" s="48"/>
@@ -11211,7 +11244,7 @@
       <c r="L108" s="49"/>
       <c r="M108" s="49"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="F109" s="49"/>
       <c r="G109" s="49"/>
       <c r="H109" s="48"/>
@@ -11221,7 +11254,7 @@
       <c r="L109" s="49"/>
       <c r="M109" s="49"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="F110" s="49"/>
       <c r="G110" s="49"/>
       <c r="H110" s="48"/>
@@ -11231,10 +11264,10 @@
       <c r="L110" s="49"/>
       <c r="M110" s="49"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="H111" s="12"/>
     </row>
-    <row r="113" spans="8:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:13">
       <c r="H113" s="42"/>
       <c r="M113" s="22"/>
     </row>
@@ -11244,6 +11277,11 @@
     <mergeCell ref="I12:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>